--- a/Ruby/watch-list-sell.xlsx
+++ b/Ruby/watch-list-sell.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Ruby/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_085DA7BF1340DCBE6D7D38955AE4363C9D6787A6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD28C99D-44F2-4826-915B-C66DBDD910D5}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_085D51F7547EFCBE6D7D38955AA9463A95C387B0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3DF01069-6BC9-44CC-AFBA-AC4399F1EE39}"/>
   <bookViews>
-    <workbookView xWindow="144" yWindow="396" windowWidth="13524" windowHeight="9156" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1476" yWindow="2640" windowWidth="13524" windowHeight="9156" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -74,10 +74,10 @@
     <t>DIF</t>
   </si>
   <si>
+    <t>GVREIT</t>
+  </si>
+  <si>
     <t>WHART</t>
-  </si>
-  <si>
-    <t>GVREIT</t>
   </si>
   <si>
     <t>RCL</t>
@@ -96,7 +96,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,6 +109,14 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -146,12 +154,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -167,6 +176,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -454,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -465,7 +478,7 @@
     <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -485,22 +498,22 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -514,30 +527,28 @@
         <v>7.3</v>
       </c>
       <c r="E2">
-        <v>8.5</v>
+        <v>8.65</v>
       </c>
       <c r="F2">
-        <v>8.65</v>
+        <v>8.0300000000000011</v>
       </c>
       <c r="G2">
-        <v>0.59171600000000002</v>
+        <v>8100.0000000000036</v>
       </c>
       <c r="H2">
-        <v>16.440000000000001</v>
+        <v>2.3668640000000001</v>
       </c>
       <c r="I2">
+        <v>18.489999999999998</v>
+      </c>
+      <c r="J2">
         <v>43800</v>
       </c>
-      <c r="J2">
-        <f>C2*F2</f>
+      <c r="K2">
         <v>51900</v>
       </c>
-      <c r="K2">
-        <f>J2-I2</f>
-        <v>8100</v>
-      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -551,98 +562,98 @@
         <v>7.5</v>
       </c>
       <c r="E3">
-        <v>8.35</v>
+        <v>8.4</v>
       </c>
       <c r="F3">
         <v>8.25</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>4500.0000000000018</v>
       </c>
       <c r="H3">
-        <v>11.33</v>
+        <v>0.59880199999999995</v>
       </c>
       <c r="I3">
+        <v>12</v>
+      </c>
+      <c r="J3">
         <v>37500</v>
       </c>
-      <c r="J3">
-        <v>41750</v>
-      </c>
       <c r="K3">
-        <v>4249.9999999999982</v>
+        <v>42000</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="2">
-        <v>45846</v>
+        <v>45191</v>
       </c>
       <c r="C4">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="D4">
-        <v>8.8000000000000007</v>
+        <v>6.1</v>
       </c>
       <c r="E4">
-        <v>9.5</v>
-      </c>
-      <c r="F4">
-        <v>9.6800000000000015</v>
+        <v>6.55</v>
+      </c>
+      <c r="F4" s="3">
+        <v>6.7</v>
       </c>
       <c r="G4">
-        <v>1.0638300000000001</v>
+        <v>2700.0000000000009</v>
       </c>
       <c r="H4">
-        <v>7.95</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>44000</v>
+        <v>7.38</v>
       </c>
       <c r="J4">
-        <v>47500</v>
+        <v>36600</v>
       </c>
       <c r="K4">
-        <v>3499.9999999999959</v>
+        <v>39300</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="2">
-        <v>45191</v>
+        <v>45846</v>
       </c>
       <c r="C5">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="D5">
-        <v>6.1</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="E5">
-        <v>6.55</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="F5">
-        <v>6.71</v>
+        <v>9.6800000000000015</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="H5">
-        <v>7.38</v>
+        <v>-1.0638300000000001</v>
       </c>
       <c r="I5">
-        <v>36600</v>
+        <v>5.68</v>
       </c>
       <c r="J5">
-        <v>39300</v>
+        <v>44000</v>
       </c>
       <c r="K5">
-        <v>2700.0000000000009</v>
+        <v>46500</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -656,28 +667,33 @@
         <v>27.75</v>
       </c>
       <c r="E6">
-        <v>29.5</v>
+        <v>29.25</v>
       </c>
       <c r="F6">
-        <v>30.524999999999999</v>
+        <v>31</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="H6">
-        <v>6.31</v>
+        <v>-0.84745800000000004</v>
       </c>
       <c r="I6">
+        <v>5.41</v>
+      </c>
+      <c r="J6">
         <v>83250</v>
       </c>
-      <c r="J6">
-        <v>88500</v>
-      </c>
       <c r="K6">
-        <v>5250</v>
+        <f>C6*F6</f>
+        <v>93000</v>
+      </c>
+      <c r="L6">
+        <f>K6-J6</f>
+        <v>9750</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -691,28 +707,28 @@
         <v>23.1</v>
       </c>
       <c r="E7">
-        <v>23.5</v>
+        <v>23.3</v>
       </c>
       <c r="F7">
         <v>25.41</v>
       </c>
       <c r="G7">
-        <v>0.85836900000000005</v>
+        <v>799.99999999999716</v>
       </c>
       <c r="H7">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="I7">
+        <v>0.87</v>
+      </c>
+      <c r="J7">
         <v>92400</v>
       </c>
-      <c r="J7">
-        <v>94000</v>
-      </c>
       <c r="K7">
-        <v>1599.9999999999941</v>
+        <v>93200</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -738,13 +754,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>31500</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>31500</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>31500</v>
       </c>
     </row>
   </sheetData>

--- a/Ruby/watch-list-sell.xlsx
+++ b/Ruby/watch-list-sell.xlsx
@@ -8,32 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Ruby/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_085D51F7547EFCBE6D7D38955AA9463A95C387B0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3DF01069-6BC9-44CC-AFBA-AC4399F1EE39}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_085D863F9067A6BF6D7D38955A8E3EFB93119F4D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4AAE4C2-0918-43CB-98D0-624D310B37A0}"/>
   <bookViews>
-    <workbookView xWindow="1476" yWindow="2640" windowWidth="13524" windowHeight="9156" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="12468" windowHeight="7404" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>name</t>
   </si>
@@ -74,19 +61,22 @@
     <t>DIF</t>
   </si>
   <si>
+    <t>WHART</t>
+  </si>
+  <si>
+    <t>RCL</t>
+  </si>
+  <si>
+    <t>TVO</t>
+  </si>
+  <si>
     <t>GVREIT</t>
   </si>
   <si>
-    <t>WHART</t>
-  </si>
-  <si>
-    <t>RCL</t>
-  </si>
-  <si>
-    <t>TVO</t>
-  </si>
-  <si>
-    <t>SYNEX</t>
+    <t>AIMIRT</t>
+  </si>
+  <si>
+    <t>PTT</t>
   </si>
 </sst>
 </file>
@@ -96,7 +86,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,15 +98,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -154,13 +135,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -176,10 +156,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -467,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -478,7 +454,7 @@
     <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -498,22 +474,22 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -533,22 +509,22 @@
         <v>8.0300000000000011</v>
       </c>
       <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>18.489999999999998</v>
+      </c>
+      <c r="I2">
+        <v>43800</v>
+      </c>
+      <c r="J2">
+        <v>51900</v>
+      </c>
+      <c r="K2">
         <v>8100.0000000000036</v>
       </c>
-      <c r="H2">
-        <v>2.3668640000000001</v>
-      </c>
-      <c r="I2">
-        <v>18.489999999999998</v>
-      </c>
-      <c r="J2">
-        <v>43800</v>
-      </c>
-      <c r="K2">
-        <v>51900</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -562,140 +538,135 @@
         <v>7.5</v>
       </c>
       <c r="E3">
-        <v>8.4</v>
+        <v>8.4499999999999993</v>
       </c>
       <c r="F3">
         <v>8.25</v>
       </c>
       <c r="G3">
-        <v>4500.0000000000018</v>
+        <v>0.59523800000000004</v>
       </c>
       <c r="H3">
-        <v>0.59880199999999995</v>
+        <v>12.67</v>
       </c>
       <c r="I3">
-        <v>12</v>
+        <v>37500</v>
       </c>
       <c r="J3">
-        <v>37500</v>
+        <v>42250</v>
       </c>
       <c r="K3">
-        <v>42000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4749.9999999999964</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="2">
-        <v>45191</v>
+        <v>45846</v>
       </c>
       <c r="C4">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="D4">
-        <v>6.1</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="E4">
-        <v>6.55</v>
-      </c>
-      <c r="F4" s="3">
-        <v>6.7</v>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F4">
+        <v>9.6800000000000015</v>
       </c>
       <c r="G4">
-        <v>2700.0000000000009</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>5.68</v>
       </c>
       <c r="I4">
-        <v>7.38</v>
+        <v>44000</v>
       </c>
       <c r="J4">
-        <v>36600</v>
+        <v>46500</v>
       </c>
       <c r="K4">
-        <v>39300</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="2">
-        <v>45846</v>
+        <v>44959</v>
       </c>
       <c r="C5">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="D5">
-        <v>8.8000000000000007</v>
+        <v>30.25</v>
       </c>
       <c r="E5">
-        <v>9.3000000000000007</v>
+        <v>31.25</v>
       </c>
       <c r="F5">
-        <v>9.6800000000000015</v>
+        <v>33.275000000000013</v>
       </c>
       <c r="G5">
-        <v>2500</v>
+        <v>6.8376070000000002</v>
       </c>
       <c r="H5">
-        <v>-1.0638300000000001</v>
+        <v>3.31</v>
       </c>
       <c r="I5">
-        <v>5.68</v>
+        <v>90750</v>
       </c>
       <c r="J5">
-        <v>44000</v>
+        <v>93750</v>
       </c>
       <c r="K5">
-        <v>46500</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2">
-        <v>44854</v>
+        <v>44876</v>
       </c>
       <c r="C6">
         <v>3000</v>
       </c>
       <c r="D6">
-        <v>27.75</v>
+        <v>30.5</v>
       </c>
       <c r="E6">
-        <v>29.25</v>
+        <v>31.25</v>
       </c>
       <c r="F6">
-        <v>31</v>
+        <v>33.549999999999997</v>
       </c>
       <c r="G6">
-        <v>4500</v>
+        <v>6.8376070000000002</v>
       </c>
       <c r="H6">
-        <v>-0.84745800000000004</v>
+        <v>2.46</v>
       </c>
       <c r="I6">
-        <v>5.41</v>
+        <v>91500</v>
       </c>
       <c r="J6">
-        <v>83250</v>
+        <v>93750</v>
       </c>
       <c r="K6">
-        <f>C6*F6</f>
-        <v>93000</v>
-      </c>
-      <c r="L6">
-        <f>K6-J6</f>
-        <v>9750</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2">
         <v>45728</v>
@@ -707,60 +678,200 @@
         <v>23.1</v>
       </c>
       <c r="E7">
-        <v>23.3</v>
+        <v>23.6</v>
       </c>
       <c r="F7">
         <v>25.41</v>
       </c>
       <c r="G7">
-        <v>799.99999999999716</v>
+        <v>1.2875540000000001</v>
       </c>
       <c r="H7">
+        <v>2.16</v>
+      </c>
+      <c r="I7">
+        <v>92400</v>
+      </c>
+      <c r="J7">
+        <v>94400</v>
+      </c>
+      <c r="K7">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="2">
+        <v>45176</v>
+      </c>
+      <c r="C8">
+        <v>3000</v>
+      </c>
+      <c r="D8">
+        <v>6.6</v>
+      </c>
+      <c r="E8">
+        <v>6.65</v>
+      </c>
+      <c r="F8">
+        <v>7.26</v>
+      </c>
+      <c r="G8">
+        <v>1.526718</v>
+      </c>
+      <c r="H8">
+        <v>0.76</v>
+      </c>
+      <c r="I8">
+        <v>19800</v>
+      </c>
+      <c r="J8">
+        <v>19950</v>
+      </c>
+      <c r="K8">
+        <v>150.0000000000021</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2">
+        <v>45180</v>
+      </c>
+      <c r="C9">
+        <v>3000</v>
+      </c>
+      <c r="D9">
+        <v>6.6</v>
+      </c>
+      <c r="E9">
+        <v>6.65</v>
+      </c>
+      <c r="F9">
+        <v>7.26</v>
+      </c>
+      <c r="G9">
+        <v>1.526718</v>
+      </c>
+      <c r="H9">
+        <v>0.76</v>
+      </c>
+      <c r="I9">
+        <v>19800</v>
+      </c>
+      <c r="J9">
+        <v>19950</v>
+      </c>
+      <c r="K9">
+        <v>150.0000000000021</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="2">
+        <v>45701</v>
+      </c>
+      <c r="C10">
+        <v>15000</v>
+      </c>
+      <c r="D10">
+        <v>6.6</v>
+      </c>
+      <c r="E10">
+        <v>6.65</v>
+      </c>
+      <c r="F10">
+        <v>7.26</v>
+      </c>
+      <c r="G10">
+        <v>1.526718</v>
+      </c>
+      <c r="H10">
+        <v>0.76</v>
+      </c>
+      <c r="I10">
+        <v>99000</v>
+      </c>
+      <c r="J10">
+        <v>99750</v>
+      </c>
+      <c r="K10">
+        <v>750.00000000001069</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="2">
+        <v>45877</v>
+      </c>
+      <c r="C11">
+        <v>2500</v>
+      </c>
+      <c r="D11">
+        <v>9.9</v>
+      </c>
+      <c r="E11">
+        <v>9.9</v>
+      </c>
+      <c r="F11">
+        <v>10.89</v>
+      </c>
+      <c r="G11">
+        <v>0.50761400000000001</v>
+      </c>
+      <c r="H11">
         <v>0</v>
       </c>
-      <c r="I7">
-        <v>0.87</v>
-      </c>
-      <c r="J7">
-        <v>92400</v>
-      </c>
-      <c r="K7">
-        <v>93200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="2">
-        <v>45875</v>
-      </c>
-      <c r="C8">
+      <c r="I11">
+        <v>24750</v>
+      </c>
+      <c r="J11">
+        <v>24750</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="2">
+        <v>45877</v>
+      </c>
+      <c r="C12">
         <v>2500</v>
       </c>
-      <c r="D8">
-        <v>12.6</v>
-      </c>
-      <c r="E8">
-        <v>12.6</v>
-      </c>
-      <c r="F8">
-        <v>13.86</v>
-      </c>
-      <c r="G8">
+      <c r="D12">
+        <v>32</v>
+      </c>
+      <c r="E12">
+        <v>32</v>
+      </c>
+      <c r="F12">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="G12">
+        <v>-0.77519400000000005</v>
+      </c>
+      <c r="H12">
         <v>0</v>
       </c>
-      <c r="H8">
+      <c r="I12">
+        <v>80000</v>
+      </c>
+      <c r="J12">
+        <v>80000</v>
+      </c>
+      <c r="K12">
         <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>31500</v>
-      </c>
-      <c r="K8">
-        <v>31500</v>
       </c>
     </row>
   </sheetData>

--- a/Ruby/watch-list-sell.xlsx
+++ b/Ruby/watch-list-sell.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Ruby/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_085D863F9067A6BF6D7D38955A8E3EFB93119F4D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4AAE4C2-0918-43CB-98D0-624D310B37A0}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_085D863F9067A6BF6D7D38955A8E3EFB93119F4D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED2E7873-BA5E-4E25-842F-FD8E08FA07DA}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="12468" windowHeight="7404" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8808" yWindow="660" windowWidth="14232" windowHeight="10968" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>name</t>
   </si>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t>difa</t>
-  </si>
-  <si>
-    <t>%change</t>
   </si>
   <si>
     <t>%profit</t>
@@ -84,13 +81,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="187" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -140,7 +137,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -156,6 +153,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -443,18 +444,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -483,15 +485,12 @@
         <v>9</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>10</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>11</v>
       </c>
       <c r="B2" s="2">
         <v>45709</v>
@@ -509,24 +508,21 @@
         <v>8.0300000000000011</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>18.489999999999998</v>
       </c>
       <c r="H2">
-        <v>18.489999999999998</v>
+        <v>43800</v>
       </c>
       <c r="I2">
-        <v>43800</v>
+        <v>51900</v>
       </c>
       <c r="J2">
-        <v>51900</v>
-      </c>
-      <c r="K2">
         <v>8100.0000000000036</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2">
         <v>45756</v>
@@ -544,24 +540,21 @@
         <v>8.25</v>
       </c>
       <c r="G3">
-        <v>0.59523800000000004</v>
+        <v>12.67</v>
       </c>
       <c r="H3">
-        <v>12.67</v>
+        <v>37500</v>
       </c>
       <c r="I3">
-        <v>37500</v>
+        <v>42250</v>
       </c>
       <c r="J3">
-        <v>42250</v>
-      </c>
-      <c r="K3">
         <v>4749.9999999999964</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2">
         <v>45846</v>
@@ -579,24 +572,21 @@
         <v>9.6800000000000015</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>5.68</v>
       </c>
       <c r="H4">
-        <v>5.68</v>
+        <v>44000</v>
       </c>
       <c r="I4">
-        <v>44000</v>
+        <v>46500</v>
       </c>
       <c r="J4">
-        <v>46500</v>
-      </c>
-      <c r="K4">
         <v>2500</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2">
         <v>44959</v>
@@ -614,24 +604,21 @@
         <v>33.275000000000013</v>
       </c>
       <c r="G5">
-        <v>6.8376070000000002</v>
+        <v>3.31</v>
       </c>
       <c r="H5">
-        <v>3.31</v>
+        <v>90750</v>
       </c>
       <c r="I5">
-        <v>90750</v>
+        <v>93750</v>
       </c>
       <c r="J5">
-        <v>93750</v>
-      </c>
-      <c r="K5">
         <v>3000</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2">
         <v>44876</v>
@@ -649,24 +636,21 @@
         <v>33.549999999999997</v>
       </c>
       <c r="G6">
-        <v>6.8376070000000002</v>
+        <v>2.46</v>
       </c>
       <c r="H6">
-        <v>2.46</v>
+        <v>91500</v>
       </c>
       <c r="I6">
-        <v>91500</v>
+        <v>93750</v>
       </c>
       <c r="J6">
-        <v>93750</v>
-      </c>
-      <c r="K6">
         <v>2250</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2">
         <v>45728</v>
@@ -684,24 +668,21 @@
         <v>25.41</v>
       </c>
       <c r="G7">
-        <v>1.2875540000000001</v>
+        <v>2.16</v>
       </c>
       <c r="H7">
-        <v>2.16</v>
+        <v>92400</v>
       </c>
       <c r="I7">
-        <v>92400</v>
+        <v>94400</v>
       </c>
       <c r="J7">
-        <v>94400</v>
-      </c>
-      <c r="K7">
         <v>2000</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2">
         <v>45176</v>
@@ -719,24 +700,21 @@
         <v>7.26</v>
       </c>
       <c r="G8">
-        <v>1.526718</v>
+        <v>0.76</v>
       </c>
       <c r="H8">
-        <v>0.76</v>
+        <v>19800</v>
       </c>
       <c r="I8">
-        <v>19800</v>
+        <v>19950</v>
       </c>
       <c r="J8">
-        <v>19950</v>
-      </c>
-      <c r="K8">
         <v>150.0000000000021</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2">
         <v>45180</v>
@@ -754,24 +732,21 @@
         <v>7.26</v>
       </c>
       <c r="G9">
-        <v>1.526718</v>
+        <v>0.76</v>
       </c>
       <c r="H9">
-        <v>0.76</v>
+        <v>19800</v>
       </c>
       <c r="I9">
-        <v>19800</v>
+        <v>19950</v>
       </c>
       <c r="J9">
-        <v>19950</v>
-      </c>
-      <c r="K9">
         <v>150.0000000000021</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2">
         <v>45701</v>
@@ -789,24 +764,21 @@
         <v>7.26</v>
       </c>
       <c r="G10">
-        <v>1.526718</v>
+        <v>0.76</v>
       </c>
       <c r="H10">
-        <v>0.76</v>
+        <v>99000</v>
       </c>
       <c r="I10">
-        <v>99000</v>
+        <v>99750</v>
       </c>
       <c r="J10">
-        <v>99750</v>
-      </c>
-      <c r="K10">
         <v>750.00000000001069</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="2">
         <v>45877</v>
@@ -824,24 +796,21 @@
         <v>10.89</v>
       </c>
       <c r="G11">
-        <v>0.50761400000000001</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>24750</v>
       </c>
       <c r="I11">
         <v>24750</v>
       </c>
       <c r="J11">
-        <v>24750</v>
-      </c>
-      <c r="K11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="2">
         <v>45877</v>
@@ -859,18 +828,15 @@
         <v>35.200000000000003</v>
       </c>
       <c r="G12">
-        <v>-0.77519400000000005</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="I12">
         <v>80000</v>
       </c>
       <c r="J12">
-        <v>80000</v>
-      </c>
-      <c r="K12">
         <v>0</v>
       </c>
     </row>

--- a/Ruby/watch-list-sell.xlsx
+++ b/Ruby/watch-list-sell.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -510,25 +510,25 @@
         <v>7.3</v>
       </c>
       <c r="E2" t="n">
-        <v>8.75</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="F2" t="n">
         <v>8.030000000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>8700.000000000002</v>
+        <v>7500.000000000005</v>
       </c>
       <c r="H2" t="n">
-        <v>1.156069</v>
+        <v>-2.285714</v>
       </c>
       <c r="I2" t="n">
-        <v>19.86</v>
+        <v>17.12</v>
       </c>
       <c r="J2" t="n">
         <v>43800</v>
       </c>
       <c r="K2" t="n">
-        <v>52500</v>
+        <v>51300.00000000001</v>
       </c>
     </row>
     <row r="3">
@@ -547,216 +547,216 @@
         <v>7.5</v>
       </c>
       <c r="E3" t="n">
-        <v>8.449999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="F3" t="n">
         <v>8.25</v>
       </c>
       <c r="G3" t="n">
-        <v>4749.999999999996</v>
+        <v>4500.000000000002</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0.591716</v>
       </c>
       <c r="I3" t="n">
-        <v>12.67</v>
+        <v>12</v>
       </c>
       <c r="J3" t="n">
         <v>37500</v>
       </c>
       <c r="K3" t="n">
-        <v>42250</v>
+        <v>42000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>WHART</t>
+          <t>TVO</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>45846</v>
+        <v>45728</v>
       </c>
       <c r="C4" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="D4" t="n">
-        <v>8.800000000000001</v>
+        <v>23.1</v>
       </c>
       <c r="E4" t="n">
-        <v>9.5</v>
+        <v>25</v>
       </c>
       <c r="F4" t="n">
-        <v>9.680000000000001</v>
+        <v>25.41</v>
       </c>
       <c r="G4" t="n">
-        <v>3499.999999999996</v>
+        <v>7599.999999999995</v>
       </c>
       <c r="H4" t="n">
-        <v>2.150538</v>
+        <v>2.459016</v>
       </c>
       <c r="I4" t="n">
-        <v>7.95</v>
+        <v>8.23</v>
       </c>
       <c r="J4" t="n">
-        <v>44000</v>
+        <v>92400</v>
       </c>
       <c r="K4" t="n">
-        <v>47500</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>TVO</t>
+          <t>WHART</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>45728</v>
+        <v>45846</v>
       </c>
       <c r="C5" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="D5" t="n">
-        <v>23.1</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>24.4</v>
+        <v>9.4</v>
       </c>
       <c r="F5" t="n">
-        <v>25.41</v>
+        <v>9.680000000000001</v>
       </c>
       <c r="G5" t="n">
-        <v>5199.999999999989</v>
+        <v>2999.999999999998</v>
       </c>
       <c r="H5" t="n">
-        <v>3.389831</v>
+        <v>-1.052632</v>
       </c>
       <c r="I5" t="n">
-        <v>5.63</v>
+        <v>6.82</v>
       </c>
       <c r="J5" t="n">
-        <v>92400</v>
+        <v>44000</v>
       </c>
       <c r="K5" t="n">
-        <v>97600</v>
+        <v>47000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>GVREIT</t>
+          <t>AIMIRT</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>45176</v>
+        <v>45882</v>
       </c>
       <c r="C6" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="D6" t="n">
-        <v>6.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>6.8</v>
+        <v>9.9</v>
       </c>
       <c r="F6" t="n">
-        <v>7.26</v>
+        <v>10.78</v>
       </c>
       <c r="G6" t="n">
-        <v>600.0000000000006</v>
+        <v>249.9999999999991</v>
       </c>
       <c r="H6" t="n">
-        <v>2.255639</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>3.03</v>
+        <v>1.02</v>
       </c>
       <c r="J6" t="n">
-        <v>19800</v>
+        <v>24500</v>
       </c>
       <c r="K6" t="n">
-        <v>20400</v>
+        <v>24750</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>GVREIT</t>
+          <t>PTT</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>45180</v>
+        <v>45877</v>
       </c>
       <c r="C7" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="D7" t="n">
-        <v>6.6</v>
+        <v>32</v>
       </c>
       <c r="E7" t="n">
-        <v>6.8</v>
+        <v>32.25</v>
       </c>
       <c r="F7" t="n">
-        <v>7.26</v>
+        <v>35.2</v>
       </c>
       <c r="G7" t="n">
-        <v>600.0000000000006</v>
+        <v>625</v>
       </c>
       <c r="H7" t="n">
-        <v>2.255639</v>
+        <v>-0.769231</v>
       </c>
       <c r="I7" t="n">
-        <v>3.03</v>
+        <v>0.78</v>
       </c>
       <c r="J7" t="n">
-        <v>19800</v>
+        <v>80000</v>
       </c>
       <c r="K7" t="n">
-        <v>20400</v>
+        <v>80625</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>GVREIT</t>
+          <t>TVO</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>45701</v>
+        <v>45602</v>
       </c>
       <c r="C8" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="D8" t="n">
-        <v>6.6</v>
+        <v>24.9</v>
       </c>
       <c r="E8" t="n">
-        <v>6.8</v>
+        <v>25</v>
       </c>
       <c r="F8" t="n">
-        <v>7.26</v>
+        <v>27.39</v>
       </c>
       <c r="G8" t="n">
-        <v>3000.000000000003</v>
+        <v>400.0000000000057</v>
       </c>
       <c r="H8" t="n">
-        <v>2.255639</v>
+        <v>2.459016</v>
       </c>
       <c r="I8" t="n">
-        <v>3.03</v>
+        <v>0.4</v>
       </c>
       <c r="J8" t="n">
-        <v>99000</v>
+        <v>99600</v>
       </c>
       <c r="K8" t="n">
-        <v>102000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>PTT</t>
+          <t>AIMIRT</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
@@ -766,176 +766,28 @@
         <v>2500</v>
       </c>
       <c r="D9" t="n">
-        <v>32</v>
+        <v>9.9</v>
       </c>
       <c r="E9" t="n">
-        <v>32.5</v>
+        <v>9.9</v>
       </c>
       <c r="F9" t="n">
-        <v>35.2</v>
+        <v>10.89</v>
       </c>
       <c r="G9" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>1.5625</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1.56</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>80000</v>
+        <v>24750</v>
       </c>
       <c r="K9" t="n">
-        <v>81250</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>AIMIRT</t>
-        </is>
-      </c>
-      <c r="B10" s="2" t="n">
-        <v>45882</v>
-      </c>
-      <c r="C10" t="n">
-        <v>2500</v>
-      </c>
-      <c r="D10" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="E10" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="F10" t="n">
-        <v>10.78</v>
-      </c>
-      <c r="G10" t="n">
-        <v>249.9999999999991</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="J10" t="n">
-        <v>24500</v>
-      </c>
-      <c r="K10" t="n">
         <v>24750</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>AIMIRT</t>
-        </is>
-      </c>
-      <c r="B11" s="2" t="n">
-        <v>45877</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2500</v>
-      </c>
-      <c r="D11" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="E11" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="F11" t="n">
-        <v>10.89</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>24750</v>
-      </c>
-      <c r="K11" t="n">
-        <v>24750</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>GVREIT</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="n">
-        <v>45174</v>
-      </c>
-      <c r="C12" t="n">
-        <v>6000</v>
-      </c>
-      <c r="D12" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="E12" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="F12" t="n">
-        <v>7.48</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>2.255639</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>40800</v>
-      </c>
-      <c r="K12" t="n">
-        <v>40800</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>RCL</t>
-        </is>
-      </c>
-      <c r="B13" s="2" t="n">
-        <v>44959</v>
-      </c>
-      <c r="C13" t="n">
-        <v>3000</v>
-      </c>
-      <c r="D13" t="n">
-        <v>30.25</v>
-      </c>
-      <c r="E13" t="n">
-        <v>30.25</v>
-      </c>
-      <c r="F13" t="n">
-        <v>33.27500000000001</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>-3.2</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>90750</v>
-      </c>
-      <c r="K13" t="n">
-        <v>90750</v>
       </c>
     </row>
   </sheetData>

--- a/Ruby/watch-list-sell.xlsx
+++ b/Ruby/watch-list-sell.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -510,25 +510,25 @@
         <v>7.3</v>
       </c>
       <c r="E2" t="n">
-        <v>8.550000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="F2" t="n">
         <v>8.030000000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.156069</v>
+        <v>0.584795</v>
       </c>
       <c r="H2" t="n">
-        <v>17.12</v>
+        <v>17.81</v>
       </c>
       <c r="I2" t="n">
         <v>43800</v>
       </c>
       <c r="J2" t="n">
-        <v>51300.00000000001</v>
+        <v>51600</v>
       </c>
       <c r="K2" t="n">
-        <v>7500.000000000005</v>
+        <v>7799.999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -547,25 +547,25 @@
         <v>23.1</v>
       </c>
       <c r="E3" t="n">
-        <v>25.25</v>
+        <v>25</v>
       </c>
       <c r="F3" t="n">
         <v>25.41</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>-0.990099</v>
       </c>
       <c r="H3" t="n">
-        <v>9.31</v>
+        <v>8.23</v>
       </c>
       <c r="I3" t="n">
         <v>92400</v>
       </c>
       <c r="J3" t="n">
-        <v>101000</v>
+        <v>100000</v>
       </c>
       <c r="K3" t="n">
-        <v>8599.999999999995</v>
+        <v>7599.999999999995</v>
       </c>
     </row>
     <row r="4">
@@ -584,25 +584,25 @@
         <v>7.5</v>
       </c>
       <c r="E4" t="n">
-        <v>8.15</v>
+        <v>8.1</v>
       </c>
       <c r="F4" t="n">
         <v>8.25</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.609756</v>
+        <v>-0.613497</v>
       </c>
       <c r="H4" t="n">
-        <v>8.67</v>
+        <v>8</v>
       </c>
       <c r="I4" t="n">
         <v>37500</v>
       </c>
       <c r="J4" t="n">
-        <v>40750</v>
+        <v>40500</v>
       </c>
       <c r="K4" t="n">
-        <v>3250.000000000002</v>
+        <v>2999.999999999998</v>
       </c>
     </row>
     <row r="5">
@@ -621,25 +621,25 @@
         <v>8.800000000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>9.15</v>
+        <v>9.1</v>
       </c>
       <c r="F5" t="n">
         <v>9.680000000000001</v>
       </c>
       <c r="G5" t="n">
-        <v>-2.139037</v>
+        <v>-0.546448</v>
       </c>
       <c r="H5" t="n">
-        <v>3.98</v>
+        <v>3.41</v>
       </c>
       <c r="I5" t="n">
         <v>44000</v>
       </c>
       <c r="J5" t="n">
-        <v>45750</v>
+        <v>45500</v>
       </c>
       <c r="K5" t="n">
-        <v>1749.999999999998</v>
+        <v>1499.999999999995</v>
       </c>
     </row>
     <row r="6">
@@ -658,62 +658,25 @@
         <v>24.9</v>
       </c>
       <c r="E6" t="n">
-        <v>25.25</v>
+        <v>25</v>
       </c>
       <c r="F6" t="n">
         <v>27.39</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>-0.990099</v>
       </c>
       <c r="H6" t="n">
-        <v>1.41</v>
+        <v>0.4</v>
       </c>
       <c r="I6" t="n">
         <v>99600</v>
       </c>
       <c r="J6" t="n">
-        <v>101000</v>
+        <v>100000</v>
       </c>
       <c r="K6" t="n">
-        <v>1400.000000000006</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>PTT</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="n">
-        <v>45877</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2500</v>
-      </c>
-      <c r="D7" t="n">
-        <v>32</v>
-      </c>
-      <c r="E7" t="n">
-        <v>32.25</v>
-      </c>
-      <c r="F7" t="n">
-        <v>35.2</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="I7" t="n">
-        <v>80000</v>
-      </c>
-      <c r="J7" t="n">
-        <v>80625</v>
-      </c>
-      <c r="K7" t="n">
-        <v>625</v>
+        <v>400.0000000000057</v>
       </c>
     </row>
   </sheetData>

--- a/Ruby/watch-list-sell.xlsx
+++ b/Ruby/watch-list-sell.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,7 +516,7 @@
         <v>8.030000000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>0.584795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>17.81</v>
@@ -547,25 +547,25 @@
         <v>23.1</v>
       </c>
       <c r="E3" t="n">
-        <v>25</v>
+        <v>25.25</v>
       </c>
       <c r="F3" t="n">
         <v>25.41</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.990099</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>8.23</v>
+        <v>9.31</v>
       </c>
       <c r="I3" t="n">
         <v>92400</v>
       </c>
       <c r="J3" t="n">
-        <v>100000</v>
+        <v>101000</v>
       </c>
       <c r="K3" t="n">
-        <v>7599.999999999995</v>
+        <v>8599.999999999995</v>
       </c>
     </row>
     <row r="4">
@@ -590,7 +590,7 @@
         <v>8.25</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.613497</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>8</v>
@@ -627,7 +627,7 @@
         <v>9.680000000000001</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.546448</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>3.41</v>
@@ -658,25 +658,62 @@
         <v>24.9</v>
       </c>
       <c r="E6" t="n">
-        <v>25</v>
+        <v>25.25</v>
       </c>
       <c r="F6" t="n">
         <v>27.39</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.990099</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4</v>
+        <v>1.41</v>
       </c>
       <c r="I6" t="n">
         <v>99600</v>
       </c>
       <c r="J6" t="n">
-        <v>100000</v>
+        <v>101000</v>
       </c>
       <c r="K6" t="n">
-        <v>400.0000000000057</v>
+        <v>1400.000000000006</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>PTT</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>45877</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2500</v>
+      </c>
+      <c r="D7" t="n">
+        <v>32</v>
+      </c>
+      <c r="E7" t="n">
+        <v>32</v>
+      </c>
+      <c r="F7" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.787402</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>80000</v>
+      </c>
+      <c r="J7" t="n">
+        <v>80000</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Ruby/watch-list-sell.xlsx
+++ b/Ruby/watch-list-sell.xlsx
@@ -534,75 +534,75 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>TVO</t>
+          <t>DIF</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45728</v>
+        <v>45756</v>
       </c>
       <c r="C3" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="D3" t="n">
-        <v>23.1</v>
+        <v>7.5</v>
       </c>
       <c r="E3" t="n">
-        <v>25.25</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>25.41</v>
+        <v>8.25</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>1.234568</v>
       </c>
       <c r="H3" t="n">
-        <v>9.31</v>
+        <v>9.33</v>
       </c>
       <c r="I3" t="n">
-        <v>92400</v>
+        <v>37500</v>
       </c>
       <c r="J3" t="n">
-        <v>101000</v>
+        <v>41000</v>
       </c>
       <c r="K3" t="n">
-        <v>8599.999999999995</v>
+        <v>3499.999999999996</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DIF</t>
+          <t>TVO</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>45756</v>
+        <v>45728</v>
       </c>
       <c r="C4" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="D4" t="n">
-        <v>7.5</v>
+        <v>23.1</v>
       </c>
       <c r="E4" t="n">
-        <v>8.1</v>
+        <v>25.25</v>
       </c>
       <c r="F4" t="n">
-        <v>8.25</v>
+        <v>25.41</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>9.31</v>
       </c>
       <c r="I4" t="n">
-        <v>37500</v>
+        <v>92400</v>
       </c>
       <c r="J4" t="n">
-        <v>40500</v>
+        <v>101000</v>
       </c>
       <c r="K4" t="n">
-        <v>2999.999999999998</v>
+        <v>8599.999999999995</v>
       </c>
     </row>
     <row r="5">
@@ -621,25 +621,25 @@
         <v>8.800000000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>9.1</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="F5" t="n">
         <v>9.680000000000001</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>-0.549451</v>
       </c>
       <c r="H5" t="n">
-        <v>3.41</v>
+        <v>2.84</v>
       </c>
       <c r="I5" t="n">
         <v>44000</v>
       </c>
       <c r="J5" t="n">
-        <v>45500</v>
+        <v>45250</v>
       </c>
       <c r="K5" t="n">
-        <v>1499.999999999995</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="6">
@@ -664,7 +664,7 @@
         <v>27.39</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>1.41</v>
@@ -701,7 +701,7 @@
         <v>35.2</v>
       </c>
       <c r="G7" t="n">
-        <v>0.787402</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>

--- a/Ruby/watch-list-sell.xlsx
+++ b/Ruby/watch-list-sell.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -510,25 +510,25 @@
         <v>7.3</v>
       </c>
       <c r="E2" t="n">
-        <v>8.6</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="F2" t="n">
         <v>8.030000000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-1.744186</v>
       </c>
       <c r="H2" t="n">
-        <v>17.81</v>
+        <v>15.75</v>
       </c>
       <c r="I2" t="n">
         <v>43800</v>
       </c>
       <c r="J2" t="n">
-        <v>51600</v>
+        <v>50699.99999999999</v>
       </c>
       <c r="K2" t="n">
-        <v>7799.999999999999</v>
+        <v>6899.999999999996</v>
       </c>
     </row>
     <row r="3">
@@ -553,7 +553,7 @@
         <v>8.25</v>
       </c>
       <c r="G3" t="n">
-        <v>1.234568</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>9.33</v>
@@ -584,25 +584,25 @@
         <v>23.1</v>
       </c>
       <c r="E4" t="n">
-        <v>25.25</v>
+        <v>24.4</v>
       </c>
       <c r="F4" t="n">
         <v>25.41</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-3.366337</v>
       </c>
       <c r="H4" t="n">
-        <v>9.31</v>
+        <v>5.63</v>
       </c>
       <c r="I4" t="n">
         <v>92400</v>
       </c>
       <c r="J4" t="n">
-        <v>101000</v>
+        <v>97600</v>
       </c>
       <c r="K4" t="n">
-        <v>8599.999999999995</v>
+        <v>5199.999999999989</v>
       </c>
     </row>
     <row r="5">
@@ -621,98 +621,61 @@
         <v>8.800000000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>9.050000000000001</v>
+        <v>9</v>
       </c>
       <c r="F5" t="n">
         <v>9.680000000000001</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.549451</v>
+        <v>-0.552486</v>
       </c>
       <c r="H5" t="n">
-        <v>2.84</v>
+        <v>2.27</v>
       </c>
       <c r="I5" t="n">
         <v>44000</v>
       </c>
       <c r="J5" t="n">
-        <v>45250</v>
+        <v>45000</v>
       </c>
       <c r="K5" t="n">
-        <v>1250</v>
+        <v>999.9999999999965</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>TVO</t>
+          <t>PTT</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>45602</v>
+        <v>45877</v>
       </c>
       <c r="C6" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="D6" t="n">
-        <v>24.9</v>
+        <v>32</v>
       </c>
       <c r="E6" t="n">
-        <v>25.25</v>
+        <v>32</v>
       </c>
       <c r="F6" t="n">
-        <v>27.39</v>
+        <v>35.2</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>99600</v>
+        <v>80000</v>
       </c>
       <c r="J6" t="n">
-        <v>101000</v>
+        <v>80000</v>
       </c>
       <c r="K6" t="n">
-        <v>1400.000000000006</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>PTT</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="n">
-        <v>45877</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2500</v>
-      </c>
-      <c r="D7" t="n">
-        <v>32</v>
-      </c>
-      <c r="E7" t="n">
-        <v>32</v>
-      </c>
-      <c r="F7" t="n">
-        <v>35.2</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>80000</v>
-      </c>
-      <c r="J7" t="n">
-        <v>80000</v>
-      </c>
-      <c r="K7" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Ruby/watch-list-sell.xlsx
+++ b/Ruby/watch-list-sell.xlsx
@@ -510,25 +510,25 @@
         <v>7.3</v>
       </c>
       <c r="E2" t="n">
-        <v>8.449999999999999</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="F2" t="n">
         <v>8.030000000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.744186</v>
+        <v>1.183432</v>
       </c>
       <c r="H2" t="n">
-        <v>15.75</v>
+        <v>17.12</v>
       </c>
       <c r="I2" t="n">
         <v>43800</v>
       </c>
       <c r="J2" t="n">
-        <v>50699.99999999999</v>
+        <v>51300.00000000001</v>
       </c>
       <c r="K2" t="n">
-        <v>6899.999999999996</v>
+        <v>7500.000000000005</v>
       </c>
     </row>
     <row r="3">
@@ -547,25 +547,25 @@
         <v>7.5</v>
       </c>
       <c r="E3" t="n">
-        <v>8.199999999999999</v>
+        <v>8.25</v>
       </c>
       <c r="F3" t="n">
         <v>8.25</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>0.609756</v>
       </c>
       <c r="H3" t="n">
-        <v>9.33</v>
+        <v>10</v>
       </c>
       <c r="I3" t="n">
         <v>37500</v>
       </c>
       <c r="J3" t="n">
-        <v>41000</v>
+        <v>41250</v>
       </c>
       <c r="K3" t="n">
-        <v>3499.999999999996</v>
+        <v>3750</v>
       </c>
     </row>
     <row r="4">
@@ -584,25 +584,25 @@
         <v>23.1</v>
       </c>
       <c r="E4" t="n">
-        <v>24.4</v>
+        <v>24.2</v>
       </c>
       <c r="F4" t="n">
         <v>25.41</v>
       </c>
       <c r="G4" t="n">
-        <v>-3.366337</v>
+        <v>-0.819672</v>
       </c>
       <c r="H4" t="n">
-        <v>5.63</v>
+        <v>4.76</v>
       </c>
       <c r="I4" t="n">
         <v>92400</v>
       </c>
       <c r="J4" t="n">
-        <v>97600</v>
+        <v>96800</v>
       </c>
       <c r="K4" t="n">
-        <v>5199.999999999989</v>
+        <v>4399.999999999992</v>
       </c>
     </row>
     <row r="5">
@@ -621,25 +621,25 @@
         <v>8.800000000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>9</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="F5" t="n">
         <v>9.680000000000001</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.552486</v>
+        <v>0.555556</v>
       </c>
       <c r="H5" t="n">
-        <v>2.27</v>
+        <v>2.84</v>
       </c>
       <c r="I5" t="n">
         <v>44000</v>
       </c>
       <c r="J5" t="n">
-        <v>45000</v>
+        <v>45250</v>
       </c>
       <c r="K5" t="n">
-        <v>999.9999999999965</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="6">
@@ -658,25 +658,25 @@
         <v>32</v>
       </c>
       <c r="E6" t="n">
-        <v>32</v>
+        <v>32.25</v>
       </c>
       <c r="F6" t="n">
         <v>35.2</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>0.78125</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>0.78</v>
       </c>
       <c r="I6" t="n">
         <v>80000</v>
       </c>
       <c r="J6" t="n">
-        <v>80000</v>
+        <v>80625</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>625</v>
       </c>
     </row>
   </sheetData>

--- a/Ruby/watch-list-sell.xlsx
+++ b/Ruby/watch-list-sell.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -510,25 +510,25 @@
         <v>7.3</v>
       </c>
       <c r="E2" t="n">
-        <v>8.550000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="F2" t="n">
         <v>8.030000000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>1.183432</v>
+        <v>-1.754386</v>
       </c>
       <c r="H2" t="n">
-        <v>17.12</v>
+        <v>15.07</v>
       </c>
       <c r="I2" t="n">
         <v>43800</v>
       </c>
       <c r="J2" t="n">
-        <v>51300.00000000001</v>
+        <v>50400</v>
       </c>
       <c r="K2" t="n">
-        <v>7500.000000000005</v>
+        <v>6600.000000000004</v>
       </c>
     </row>
     <row r="3">
@@ -547,25 +547,25 @@
         <v>7.5</v>
       </c>
       <c r="E3" t="n">
-        <v>8.25</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="F3" t="n">
         <v>8.25</v>
       </c>
       <c r="G3" t="n">
-        <v>0.609756</v>
+        <v>-0.606061</v>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>9.33</v>
       </c>
       <c r="I3" t="n">
         <v>37500</v>
       </c>
       <c r="J3" t="n">
-        <v>41250</v>
+        <v>41000</v>
       </c>
       <c r="K3" t="n">
-        <v>3750</v>
+        <v>3499.999999999996</v>
       </c>
     </row>
     <row r="4">
@@ -584,25 +584,25 @@
         <v>23.1</v>
       </c>
       <c r="E4" t="n">
-        <v>24.2</v>
+        <v>24.4</v>
       </c>
       <c r="F4" t="n">
         <v>25.41</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.819672</v>
+        <v>0.826446</v>
       </c>
       <c r="H4" t="n">
-        <v>4.76</v>
+        <v>5.63</v>
       </c>
       <c r="I4" t="n">
         <v>92400</v>
       </c>
       <c r="J4" t="n">
-        <v>96800</v>
+        <v>97600</v>
       </c>
       <c r="K4" t="n">
-        <v>4399.999999999992</v>
+        <v>5199.999999999989</v>
       </c>
     </row>
     <row r="5">
@@ -621,25 +621,25 @@
         <v>8.800000000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>9.050000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="F5" t="n">
         <v>9.680000000000001</v>
       </c>
       <c r="G5" t="n">
-        <v>0.555556</v>
+        <v>0.552486</v>
       </c>
       <c r="H5" t="n">
-        <v>2.84</v>
+        <v>3.41</v>
       </c>
       <c r="I5" t="n">
         <v>44000</v>
       </c>
       <c r="J5" t="n">
-        <v>45250</v>
+        <v>45500</v>
       </c>
       <c r="K5" t="n">
-        <v>1250</v>
+        <v>1499.999999999995</v>
       </c>
     </row>
     <row r="6">
@@ -658,25 +658,62 @@
         <v>32</v>
       </c>
       <c r="E6" t="n">
-        <v>32.25</v>
+        <v>32</v>
       </c>
       <c r="F6" t="n">
         <v>35.2</v>
       </c>
       <c r="G6" t="n">
-        <v>0.78125</v>
+        <v>-0.775194</v>
       </c>
       <c r="H6" t="n">
-        <v>0.78</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>80000</v>
       </c>
       <c r="J6" t="n">
-        <v>80625</v>
+        <v>80000</v>
       </c>
       <c r="K6" t="n">
-        <v>625</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>RCL</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>45887</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D7" t="n">
+        <v>28</v>
+      </c>
+      <c r="E7" t="n">
+        <v>28</v>
+      </c>
+      <c r="F7" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="G7" t="n">
+        <v>3.703704</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>84000</v>
+      </c>
+      <c r="J7" t="n">
+        <v>84000</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Ruby/watch-list-sell.xlsx
+++ b/Ruby/watch-list-sell.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,223 +497,149 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MCS</t>
+          <t>DIF</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45709</v>
+        <v>45756</v>
       </c>
       <c r="C2" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="D2" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="E2" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>8.030000000000001</v>
+        <v>8.25</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.754386</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>15.07</v>
+        <v>9.33</v>
       </c>
       <c r="I2" t="n">
-        <v>43800</v>
+        <v>37500</v>
       </c>
       <c r="J2" t="n">
-        <v>50400</v>
+        <v>41000</v>
       </c>
       <c r="K2" t="n">
-        <v>6600.000000000004</v>
+        <v>3499.999999999996</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DIF</t>
+          <t>TVO</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45756</v>
+        <v>45728</v>
       </c>
       <c r="C3" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="D3" t="n">
-        <v>7.5</v>
+        <v>23.1</v>
       </c>
       <c r="E3" t="n">
-        <v>8.199999999999999</v>
+        <v>24.6</v>
       </c>
       <c r="F3" t="n">
-        <v>8.25</v>
+        <v>25.41</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.606061</v>
+        <v>0.819672</v>
       </c>
       <c r="H3" t="n">
-        <v>9.33</v>
+        <v>6.49</v>
       </c>
       <c r="I3" t="n">
-        <v>37500</v>
+        <v>92400</v>
       </c>
       <c r="J3" t="n">
-        <v>41000</v>
+        <v>98400</v>
       </c>
       <c r="K3" t="n">
-        <v>3499.999999999996</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>TVO</t>
+          <t>WHART</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>45728</v>
+        <v>45846</v>
       </c>
       <c r="C4" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="D4" t="n">
-        <v>23.1</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>24.4</v>
+        <v>9.15</v>
       </c>
       <c r="F4" t="n">
-        <v>25.41</v>
+        <v>9.680000000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>0.826446</v>
+        <v>0.549451</v>
       </c>
       <c r="H4" t="n">
-        <v>5.63</v>
+        <v>3.98</v>
       </c>
       <c r="I4" t="n">
-        <v>92400</v>
+        <v>44000</v>
       </c>
       <c r="J4" t="n">
-        <v>97600</v>
+        <v>45750</v>
       </c>
       <c r="K4" t="n">
-        <v>5199.999999999989</v>
+        <v>1749.999999999998</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>WHART</t>
+          <t>RCL</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>45846</v>
+        <v>45887</v>
       </c>
       <c r="C5" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="D5" t="n">
-        <v>8.800000000000001</v>
+        <v>28</v>
       </c>
       <c r="E5" t="n">
-        <v>9.1</v>
+        <v>28.25</v>
       </c>
       <c r="F5" t="n">
-        <v>9.680000000000001</v>
+        <v>30.8</v>
       </c>
       <c r="G5" t="n">
-        <v>0.552486</v>
+        <v>0.892857</v>
       </c>
       <c r="H5" t="n">
-        <v>3.41</v>
+        <v>0.89</v>
       </c>
       <c r="I5" t="n">
-        <v>44000</v>
+        <v>84000</v>
       </c>
       <c r="J5" t="n">
-        <v>45500</v>
+        <v>84750</v>
       </c>
       <c r="K5" t="n">
-        <v>1499.999999999995</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>PTT</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>45877</v>
-      </c>
-      <c r="C6" t="n">
-        <v>2500</v>
-      </c>
-      <c r="D6" t="n">
-        <v>32</v>
-      </c>
-      <c r="E6" t="n">
-        <v>32</v>
-      </c>
-      <c r="F6" t="n">
-        <v>35.2</v>
-      </c>
-      <c r="G6" t="n">
-        <v>-0.775194</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>80000</v>
-      </c>
-      <c r="J6" t="n">
-        <v>80000</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>RCL</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="n">
-        <v>45887</v>
-      </c>
-      <c r="C7" t="n">
-        <v>3000</v>
-      </c>
-      <c r="D7" t="n">
-        <v>28</v>
-      </c>
-      <c r="E7" t="n">
-        <v>28</v>
-      </c>
-      <c r="F7" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="G7" t="n">
-        <v>3.703704</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>84000</v>
-      </c>
-      <c r="J7" t="n">
-        <v>84000</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
+        <v>750</v>
       </c>
     </row>
   </sheetData>

--- a/Ruby/watch-list-sell.xlsx
+++ b/Ruby/watch-list-sell.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -547,25 +547,25 @@
         <v>23.1</v>
       </c>
       <c r="E3" t="n">
-        <v>24.6</v>
+        <v>25</v>
       </c>
       <c r="F3" t="n">
         <v>25.41</v>
       </c>
       <c r="G3" t="n">
-        <v>0.819672</v>
+        <v>1.626016</v>
       </c>
       <c r="H3" t="n">
-        <v>6.49</v>
+        <v>8.23</v>
       </c>
       <c r="I3" t="n">
         <v>92400</v>
       </c>
       <c r="J3" t="n">
-        <v>98400</v>
+        <v>100000</v>
       </c>
       <c r="K3" t="n">
-        <v>6000</v>
+        <v>7599.999999999995</v>
       </c>
     </row>
     <row r="4">
@@ -590,7 +590,7 @@
         <v>9.680000000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>0.549451</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>3.98</v>
@@ -608,38 +608,75 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>TVO</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>45602</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4000</v>
+      </c>
+      <c r="D5" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="E5" t="n">
+        <v>25</v>
+      </c>
+      <c r="F5" t="n">
+        <v>27.39</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.626016</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I5" t="n">
+        <v>99600</v>
+      </c>
+      <c r="J5" t="n">
+        <v>100000</v>
+      </c>
+      <c r="K5" t="n">
+        <v>400.0000000000057</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>RCL</t>
         </is>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B6" s="2" t="n">
         <v>45887</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>3000</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>28</v>
       </c>
-      <c r="E5" t="n">
-        <v>28.25</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="E6" t="n">
+        <v>28</v>
+      </c>
+      <c r="F6" t="n">
         <v>30.8</v>
       </c>
-      <c r="G5" t="n">
-        <v>0.892857</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="I5" t="n">
+      <c r="G6" t="n">
+        <v>-0.884956</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>84000</v>
       </c>
-      <c r="J5" t="n">
-        <v>84750</v>
-      </c>
-      <c r="K5" t="n">
-        <v>750</v>
+      <c r="J6" t="n">
+        <v>84000</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Ruby/watch-list-sell.xlsx
+++ b/Ruby/watch-list-sell.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -547,25 +547,25 @@
         <v>23.1</v>
       </c>
       <c r="E3" t="n">
-        <v>25</v>
+        <v>24.7</v>
       </c>
       <c r="F3" t="n">
         <v>25.41</v>
       </c>
       <c r="G3" t="n">
-        <v>1.626016</v>
+        <v>-1.2</v>
       </c>
       <c r="H3" t="n">
-        <v>8.23</v>
+        <v>6.93</v>
       </c>
       <c r="I3" t="n">
         <v>92400</v>
       </c>
       <c r="J3" t="n">
-        <v>100000</v>
+        <v>98800</v>
       </c>
       <c r="K3" t="n">
-        <v>7599.999999999995</v>
+        <v>6399.999999999992</v>
       </c>
     </row>
     <row r="4">
@@ -584,99 +584,25 @@
         <v>8.800000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>9.15</v>
+        <v>9</v>
       </c>
       <c r="F4" t="n">
         <v>9.680000000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-1.639344</v>
       </c>
       <c r="H4" t="n">
-        <v>3.98</v>
+        <v>2.27</v>
       </c>
       <c r="I4" t="n">
         <v>44000</v>
       </c>
       <c r="J4" t="n">
-        <v>45750</v>
+        <v>45000</v>
       </c>
       <c r="K4" t="n">
-        <v>1749.999999999998</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>TVO</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>45602</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4000</v>
-      </c>
-      <c r="D5" t="n">
-        <v>24.9</v>
-      </c>
-      <c r="E5" t="n">
-        <v>25</v>
-      </c>
-      <c r="F5" t="n">
-        <v>27.39</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1.626016</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="I5" t="n">
-        <v>99600</v>
-      </c>
-      <c r="J5" t="n">
-        <v>100000</v>
-      </c>
-      <c r="K5" t="n">
-        <v>400.0000000000057</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>RCL</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>45887</v>
-      </c>
-      <c r="C6" t="n">
-        <v>3000</v>
-      </c>
-      <c r="D6" t="n">
-        <v>28</v>
-      </c>
-      <c r="E6" t="n">
-        <v>28</v>
-      </c>
-      <c r="F6" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="G6" t="n">
-        <v>-0.884956</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>84000</v>
-      </c>
-      <c r="J6" t="n">
-        <v>84000</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
+        <v>999.9999999999965</v>
       </c>
     </row>
   </sheetData>

--- a/Ruby/watch-list-sell.xlsx
+++ b/Ruby/watch-list-sell.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -510,7 +510,7 @@
         <v>7.5</v>
       </c>
       <c r="E2" t="n">
-        <v>8.199999999999999</v>
+        <v>8.25</v>
       </c>
       <c r="F2" t="n">
         <v>8.25</v>
@@ -519,16 +519,16 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>9.33</v>
+        <v>10</v>
       </c>
       <c r="I2" t="n">
         <v>37500</v>
       </c>
       <c r="J2" t="n">
-        <v>41000</v>
+        <v>41250</v>
       </c>
       <c r="K2" t="n">
-        <v>3499.999999999996</v>
+        <v>3750</v>
       </c>
     </row>
     <row r="3">
@@ -553,7 +553,7 @@
         <v>25.41</v>
       </c>
       <c r="G3" t="n">
-        <v>-1.2</v>
+        <v>0.816327</v>
       </c>
       <c r="H3" t="n">
         <v>6.93</v>
@@ -584,25 +584,62 @@
         <v>8.800000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>9</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="F4" t="n">
         <v>9.680000000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>-1.639344</v>
+        <v>-0.549451</v>
       </c>
       <c r="H4" t="n">
-        <v>2.27</v>
+        <v>2.84</v>
       </c>
       <c r="I4" t="n">
         <v>44000</v>
       </c>
       <c r="J4" t="n">
-        <v>45000</v>
+        <v>45250</v>
       </c>
       <c r="K4" t="n">
-        <v>999.9999999999965</v>
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>PTT</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>45901</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2500</v>
+      </c>
+      <c r="D5" t="n">
+        <v>31</v>
+      </c>
+      <c r="E5" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="F5" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="I5" t="n">
+        <v>77500</v>
+      </c>
+      <c r="J5" t="n">
+        <v>78750</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1250</v>
       </c>
     </row>
   </sheetData>

--- a/Ruby/watch-list-sell.xlsx
+++ b/Ruby/watch-list-sell.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,75 +497,75 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>DIF</t>
+          <t>TVO</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45756</v>
+        <v>45728</v>
       </c>
       <c r="C2" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="D2" t="n">
-        <v>7.5</v>
+        <v>23.1</v>
       </c>
       <c r="E2" t="n">
-        <v>8.25</v>
+        <v>24.8</v>
       </c>
       <c r="F2" t="n">
-        <v>8.25</v>
+        <v>25.41</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.404858</v>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>7.36</v>
       </c>
       <c r="I2" t="n">
-        <v>37500</v>
+        <v>92400</v>
       </c>
       <c r="J2" t="n">
-        <v>41250</v>
+        <v>99200</v>
       </c>
       <c r="K2" t="n">
-        <v>3750</v>
+        <v>6799.999999999997</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>TVO</t>
+          <t>PTT</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45728</v>
+        <v>45901</v>
       </c>
       <c r="C3" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="D3" t="n">
-        <v>23.1</v>
+        <v>31</v>
       </c>
       <c r="E3" t="n">
-        <v>24.7</v>
+        <v>32</v>
       </c>
       <c r="F3" t="n">
-        <v>25.41</v>
+        <v>34.1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.816327</v>
+        <v>1.587302</v>
       </c>
       <c r="H3" t="n">
-        <v>6.93</v>
+        <v>3.23</v>
       </c>
       <c r="I3" t="n">
-        <v>92400</v>
+        <v>77500</v>
       </c>
       <c r="J3" t="n">
-        <v>98800</v>
+        <v>80000</v>
       </c>
       <c r="K3" t="n">
-        <v>6399.999999999992</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="4">
@@ -584,62 +584,99 @@
         <v>8.800000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>9.050000000000001</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="F4" t="n">
         <v>9.680000000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.549451</v>
+        <v>-1.104972</v>
       </c>
       <c r="H4" t="n">
-        <v>2.84</v>
+        <v>1.7</v>
       </c>
       <c r="I4" t="n">
         <v>44000</v>
       </c>
       <c r="J4" t="n">
-        <v>45250</v>
+        <v>44750</v>
       </c>
       <c r="K4" t="n">
-        <v>1250</v>
+        <v>749.999999999993</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>DIF</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>45883</v>
+      </c>
+      <c r="C5" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="E5" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="F5" t="n">
+        <v>9.295</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2.424242</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>84500</v>
+      </c>
+      <c r="J5" t="n">
+        <v>84500</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>PTT</t>
         </is>
       </c>
-      <c r="B5" s="2" t="n">
-        <v>45901</v>
-      </c>
-      <c r="C5" t="n">
+      <c r="B6" s="2" t="n">
+        <v>45877</v>
+      </c>
+      <c r="C6" t="n">
         <v>2500</v>
       </c>
-      <c r="D5" t="n">
-        <v>31</v>
-      </c>
-      <c r="E5" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="F5" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="D6" t="n">
+        <v>32</v>
+      </c>
+      <c r="E6" t="n">
+        <v>32</v>
+      </c>
+      <c r="F6" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.587302</v>
+      </c>
+      <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="H5" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="I5" t="n">
-        <v>77500</v>
-      </c>
-      <c r="J5" t="n">
-        <v>78750</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1250</v>
+      <c r="I6" t="n">
+        <v>80000</v>
+      </c>
+      <c r="J6" t="n">
+        <v>80000</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Ruby/watch-list-sell.xlsx
+++ b/Ruby/watch-list-sell.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -510,99 +510,99 @@
         <v>23.1</v>
       </c>
       <c r="E2" t="n">
-        <v>24.8</v>
+        <v>25</v>
       </c>
       <c r="F2" t="n">
         <v>25.41</v>
       </c>
       <c r="G2" t="n">
-        <v>0.404858</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>7.36</v>
+        <v>8.23</v>
       </c>
       <c r="I2" t="n">
         <v>92400</v>
       </c>
       <c r="J2" t="n">
-        <v>99200</v>
+        <v>100000</v>
       </c>
       <c r="K2" t="n">
-        <v>6799.999999999997</v>
+        <v>7599.999999999995</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>PTT</t>
+          <t>WHART</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45901</v>
+        <v>45846</v>
       </c>
       <c r="C3" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="D3" t="n">
-        <v>31</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="F3" t="n">
-        <v>34.1</v>
+        <v>9.680000000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>1.587302</v>
+        <v>0.558659</v>
       </c>
       <c r="H3" t="n">
-        <v>3.23</v>
+        <v>2.27</v>
       </c>
       <c r="I3" t="n">
-        <v>77500</v>
+        <v>44000</v>
       </c>
       <c r="J3" t="n">
-        <v>80000</v>
+        <v>45000</v>
       </c>
       <c r="K3" t="n">
-        <v>2500</v>
+        <v>999.9999999999965</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>WHART</t>
+          <t>PTT</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>45846</v>
+        <v>45901</v>
       </c>
       <c r="C4" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="D4" t="n">
-        <v>8.800000000000001</v>
+        <v>31</v>
       </c>
       <c r="E4" t="n">
-        <v>8.949999999999999</v>
+        <v>31.5</v>
       </c>
       <c r="F4" t="n">
-        <v>9.680000000000001</v>
+        <v>34.1</v>
       </c>
       <c r="G4" t="n">
-        <v>-1.104972</v>
+        <v>-0.787402</v>
       </c>
       <c r="H4" t="n">
-        <v>1.7</v>
+        <v>1.61</v>
       </c>
       <c r="I4" t="n">
-        <v>44000</v>
+        <v>77500</v>
       </c>
       <c r="J4" t="n">
-        <v>44750</v>
+        <v>78750</v>
       </c>
       <c r="K4" t="n">
-        <v>749.999999999993</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="5">
@@ -621,61 +621,98 @@
         <v>8.449999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>8.449999999999999</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="F5" t="n">
         <v>9.295</v>
       </c>
       <c r="G5" t="n">
-        <v>2.424242</v>
+        <v>1.183432</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="I5" t="n">
         <v>84500</v>
       </c>
       <c r="J5" t="n">
-        <v>84500</v>
+        <v>85500</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>1000.000000000014</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>PTT</t>
+          <t>TVO</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>45877</v>
+        <v>45602</v>
       </c>
       <c r="C6" t="n">
+        <v>4000</v>
+      </c>
+      <c r="D6" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="E6" t="n">
+        <v>25</v>
+      </c>
+      <c r="F6" t="n">
+        <v>27.39</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I6" t="n">
+        <v>99600</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100000</v>
+      </c>
+      <c r="K6" t="n">
+        <v>400.0000000000057</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>SYNEX</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>45875</v>
+      </c>
+      <c r="C7" t="n">
         <v>2500</v>
       </c>
-      <c r="D6" t="n">
-        <v>32</v>
-      </c>
-      <c r="E6" t="n">
-        <v>32</v>
-      </c>
-      <c r="F6" t="n">
-        <v>35.2</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1.587302</v>
-      </c>
-      <c r="H6" t="n">
+      <c r="D7" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="E7" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="F7" t="n">
+        <v>13.86</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.612903</v>
+      </c>
+      <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>80000</v>
-      </c>
-      <c r="J6" t="n">
-        <v>80000</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="I7" t="n">
+        <v>31500</v>
+      </c>
+      <c r="J7" t="n">
+        <v>31500</v>
+      </c>
+      <c r="K7" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Ruby/watch-list-sell.xlsx
+++ b/Ruby/watch-list-sell.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -510,25 +510,25 @@
         <v>23.1</v>
       </c>
       <c r="E2" t="n">
-        <v>25</v>
+        <v>25.25</v>
       </c>
       <c r="F2" t="n">
         <v>25.41</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>8.23</v>
+        <v>9.31</v>
       </c>
       <c r="I2" t="n">
         <v>92400</v>
       </c>
       <c r="J2" t="n">
-        <v>100000</v>
+        <v>101000</v>
       </c>
       <c r="K2" t="n">
-        <v>7599.999999999995</v>
+        <v>8599.999999999995</v>
       </c>
     </row>
     <row r="3">
@@ -547,25 +547,25 @@
         <v>8.800000000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>9</v>
+        <v>9.15</v>
       </c>
       <c r="F3" t="n">
         <v>9.680000000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>0.558659</v>
+        <v>1.666667</v>
       </c>
       <c r="H3" t="n">
-        <v>2.27</v>
+        <v>3.98</v>
       </c>
       <c r="I3" t="n">
         <v>44000</v>
       </c>
       <c r="J3" t="n">
-        <v>45000</v>
+        <v>45750</v>
       </c>
       <c r="K3" t="n">
-        <v>999.9999999999965</v>
+        <v>1749.999999999998</v>
       </c>
     </row>
     <row r="4">
@@ -584,25 +584,25 @@
         <v>31</v>
       </c>
       <c r="E4" t="n">
-        <v>31.5</v>
+        <v>31.75</v>
       </c>
       <c r="F4" t="n">
         <v>34.1</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.787402</v>
+        <v>0.793651</v>
       </c>
       <c r="H4" t="n">
-        <v>1.61</v>
+        <v>2.42</v>
       </c>
       <c r="I4" t="n">
         <v>77500</v>
       </c>
       <c r="J4" t="n">
-        <v>78750</v>
+        <v>79375</v>
       </c>
       <c r="K4" t="n">
-        <v>1250</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="5">
@@ -621,25 +621,25 @@
         <v>8.449999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>8.550000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="F5" t="n">
         <v>9.295</v>
       </c>
       <c r="G5" t="n">
-        <v>1.183432</v>
+        <v>0.584795</v>
       </c>
       <c r="H5" t="n">
-        <v>1.18</v>
+        <v>1.78</v>
       </c>
       <c r="I5" t="n">
         <v>84500</v>
       </c>
       <c r="J5" t="n">
-        <v>85500</v>
+        <v>86000</v>
       </c>
       <c r="K5" t="n">
-        <v>1000.000000000014</v>
+        <v>1500.000000000004</v>
       </c>
     </row>
     <row r="6">
@@ -658,62 +658,25 @@
         <v>24.9</v>
       </c>
       <c r="E6" t="n">
-        <v>25</v>
+        <v>25.25</v>
       </c>
       <c r="F6" t="n">
         <v>27.39</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4</v>
+        <v>1.41</v>
       </c>
       <c r="I6" t="n">
         <v>99600</v>
       </c>
       <c r="J6" t="n">
-        <v>100000</v>
+        <v>101000</v>
       </c>
       <c r="K6" t="n">
-        <v>400.0000000000057</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>SYNEX</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="n">
-        <v>45875</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2500</v>
-      </c>
-      <c r="D7" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="E7" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="F7" t="n">
-        <v>13.86</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1.612903</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>31500</v>
-      </c>
-      <c r="J7" t="n">
-        <v>31500</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
+        <v>1400.000000000006</v>
       </c>
     </row>
   </sheetData>

--- a/Ruby/watch-list-sell.xlsx
+++ b/Ruby/watch-list-sell.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -510,25 +510,25 @@
         <v>23.1</v>
       </c>
       <c r="E2" t="n">
-        <v>25.25</v>
+        <v>25.5</v>
       </c>
       <c r="F2" t="n">
         <v>25.41</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>0.990099</v>
       </c>
       <c r="H2" t="n">
-        <v>9.31</v>
+        <v>10.39</v>
       </c>
       <c r="I2" t="n">
         <v>92400</v>
       </c>
       <c r="J2" t="n">
-        <v>101000</v>
+        <v>102000</v>
       </c>
       <c r="K2" t="n">
-        <v>8599.999999999995</v>
+        <v>9599.999999999995</v>
       </c>
     </row>
     <row r="3">
@@ -547,25 +547,25 @@
         <v>8.800000000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>9.15</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="F3" t="n">
         <v>9.680000000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>1.666667</v>
+        <v>1.639344</v>
       </c>
       <c r="H3" t="n">
-        <v>3.98</v>
+        <v>5.68</v>
       </c>
       <c r="I3" t="n">
         <v>44000</v>
       </c>
       <c r="J3" t="n">
-        <v>45750</v>
+        <v>46500</v>
       </c>
       <c r="K3" t="n">
-        <v>1749.999999999998</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="4">
@@ -584,25 +584,25 @@
         <v>31</v>
       </c>
       <c r="E4" t="n">
-        <v>31.75</v>
+        <v>32.5</v>
       </c>
       <c r="F4" t="n">
         <v>34.1</v>
       </c>
       <c r="G4" t="n">
-        <v>0.793651</v>
+        <v>2.362205</v>
       </c>
       <c r="H4" t="n">
-        <v>2.42</v>
+        <v>4.84</v>
       </c>
       <c r="I4" t="n">
         <v>77500</v>
       </c>
       <c r="J4" t="n">
-        <v>79375</v>
+        <v>81250</v>
       </c>
       <c r="K4" t="n">
-        <v>1875</v>
+        <v>3750</v>
       </c>
     </row>
     <row r="5">
@@ -621,25 +621,25 @@
         <v>8.449999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>8.6</v>
+        <v>8.75</v>
       </c>
       <c r="F5" t="n">
         <v>9.295</v>
       </c>
       <c r="G5" t="n">
-        <v>0.584795</v>
+        <v>1.744186</v>
       </c>
       <c r="H5" t="n">
-        <v>1.78</v>
+        <v>3.55</v>
       </c>
       <c r="I5" t="n">
         <v>84500</v>
       </c>
       <c r="J5" t="n">
-        <v>86000</v>
+        <v>87500</v>
       </c>
       <c r="K5" t="n">
-        <v>1500.000000000004</v>
+        <v>3000.000000000007</v>
       </c>
     </row>
     <row r="6">
@@ -658,25 +658,99 @@
         <v>24.9</v>
       </c>
       <c r="E6" t="n">
-        <v>25.25</v>
+        <v>25.5</v>
       </c>
       <c r="F6" t="n">
         <v>27.39</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0.990099</v>
       </c>
       <c r="H6" t="n">
-        <v>1.41</v>
+        <v>2.41</v>
       </c>
       <c r="I6" t="n">
         <v>99600</v>
       </c>
       <c r="J6" t="n">
-        <v>101000</v>
+        <v>102000</v>
       </c>
       <c r="K6" t="n">
-        <v>1400.000000000006</v>
+        <v>2400.000000000005</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>PTT</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>45877</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2500</v>
+      </c>
+      <c r="D7" t="n">
+        <v>32</v>
+      </c>
+      <c r="E7" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="F7" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2.362205</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="I7" t="n">
+        <v>80000</v>
+      </c>
+      <c r="J7" t="n">
+        <v>81250</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>AIMIRT</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>45882</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2500</v>
+      </c>
+      <c r="D8" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="E8" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="F8" t="n">
+        <v>10.78</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.030928</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>24500</v>
+      </c>
+      <c r="J8" t="n">
+        <v>24500</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Ruby/watch-list-sell.xlsx
+++ b/Ruby/watch-list-sell.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,7 +516,7 @@
         <v>25.41</v>
       </c>
       <c r="G2" t="n">
-        <v>0.990099</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>10.39</v>
@@ -534,112 +534,112 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>WHART</t>
+          <t>DIF</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45846</v>
+        <v>45883</v>
       </c>
       <c r="C3" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="D3" t="n">
-        <v>8.800000000000001</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>9.300000000000001</v>
+        <v>8.85</v>
       </c>
       <c r="F3" t="n">
-        <v>9.680000000000001</v>
+        <v>9.295</v>
       </c>
       <c r="G3" t="n">
-        <v>1.639344</v>
+        <v>1.142857</v>
       </c>
       <c r="H3" t="n">
-        <v>5.68</v>
+        <v>4.73</v>
       </c>
       <c r="I3" t="n">
-        <v>44000</v>
+        <v>84500</v>
       </c>
       <c r="J3" t="n">
-        <v>46500</v>
+        <v>88500</v>
       </c>
       <c r="K3" t="n">
-        <v>2500</v>
+        <v>4000.000000000004</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>PTT</t>
+          <t>WHART</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>45901</v>
+        <v>45846</v>
       </c>
       <c r="C4" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="D4" t="n">
-        <v>31</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>32.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>34.1</v>
+        <v>9.680000000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>2.362205</v>
+        <v>-1.075269</v>
       </c>
       <c r="H4" t="n">
-        <v>4.84</v>
+        <v>4.55</v>
       </c>
       <c r="I4" t="n">
-        <v>77500</v>
+        <v>44000</v>
       </c>
       <c r="J4" t="n">
-        <v>81250</v>
+        <v>46000</v>
       </c>
       <c r="K4" t="n">
-        <v>3750</v>
+        <v>1999.999999999993</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>DIF</t>
+          <t>PTT</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>45883</v>
+        <v>45901</v>
       </c>
       <c r="C5" t="n">
-        <v>10000</v>
+        <v>2500</v>
       </c>
       <c r="D5" t="n">
-        <v>8.449999999999999</v>
+        <v>31</v>
       </c>
       <c r="E5" t="n">
-        <v>8.75</v>
+        <v>32.25</v>
       </c>
       <c r="F5" t="n">
-        <v>9.295</v>
+        <v>34.1</v>
       </c>
       <c r="G5" t="n">
-        <v>1.744186</v>
+        <v>-0.769231</v>
       </c>
       <c r="H5" t="n">
-        <v>3.55</v>
+        <v>4.03</v>
       </c>
       <c r="I5" t="n">
-        <v>84500</v>
+        <v>77500</v>
       </c>
       <c r="J5" t="n">
-        <v>87500</v>
+        <v>80625</v>
       </c>
       <c r="K5" t="n">
-        <v>3000.000000000007</v>
+        <v>3125</v>
       </c>
     </row>
     <row r="6">
@@ -664,7 +664,7 @@
         <v>27.39</v>
       </c>
       <c r="G6" t="n">
-        <v>0.990099</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>2.41</v>
@@ -682,38 +682,38 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>PTT</t>
+          <t>AIMIRT</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>45877</v>
+        <v>45882</v>
       </c>
       <c r="C7" t="n">
         <v>2500</v>
       </c>
       <c r="D7" t="n">
-        <v>32</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>32.5</v>
+        <v>10</v>
       </c>
       <c r="F7" t="n">
-        <v>35.2</v>
+        <v>10.78</v>
       </c>
       <c r="G7" t="n">
-        <v>2.362205</v>
+        <v>2.040816</v>
       </c>
       <c r="H7" t="n">
-        <v>1.56</v>
+        <v>2.04</v>
       </c>
       <c r="I7" t="n">
-        <v>80000</v>
+        <v>24500</v>
       </c>
       <c r="J7" t="n">
-        <v>81250</v>
+        <v>25000</v>
       </c>
       <c r="K7" t="n">
-        <v>1250</v>
+        <v>499.9999999999982</v>
       </c>
     </row>
     <row r="8">
@@ -723,34 +723,108 @@
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>45882</v>
+        <v>45877</v>
       </c>
       <c r="C8" t="n">
         <v>2500</v>
       </c>
       <c r="D8" t="n">
-        <v>9.800000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="E8" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="F8" t="n">
-        <v>10.78</v>
+        <v>10.89</v>
       </c>
       <c r="G8" t="n">
-        <v>1.030928</v>
+        <v>2.040816</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="I8" t="n">
-        <v>24500</v>
+        <v>24750</v>
       </c>
       <c r="J8" t="n">
-        <v>24500</v>
+        <v>25000</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>249.9999999999991</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>RCL</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>45887</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D9" t="n">
+        <v>28</v>
+      </c>
+      <c r="E9" t="n">
+        <v>28.25</v>
+      </c>
+      <c r="F9" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="G9" t="n">
+        <v>4.62963</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="I9" t="n">
+        <v>84000</v>
+      </c>
+      <c r="J9" t="n">
+        <v>84750</v>
+      </c>
+      <c r="K9" t="n">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>PTT</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>45877</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2500</v>
+      </c>
+      <c r="D10" t="n">
+        <v>32</v>
+      </c>
+      <c r="E10" t="n">
+        <v>32.25</v>
+      </c>
+      <c r="F10" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-0.769231</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="I10" t="n">
+        <v>80000</v>
+      </c>
+      <c r="J10" t="n">
+        <v>80625</v>
+      </c>
+      <c r="K10" t="n">
+        <v>625</v>
       </c>
     </row>
   </sheetData>

--- a/Ruby/watch-list-sell.xlsx
+++ b/Ruby/watch-list-sell.xlsx
@@ -510,210 +510,210 @@
         <v>23.1</v>
       </c>
       <c r="E2" t="n">
-        <v>25.5</v>
+        <v>25.25</v>
       </c>
       <c r="F2" t="n">
         <v>25.41</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-1.941748</v>
       </c>
       <c r="H2" t="n">
-        <v>10.39</v>
+        <v>9.31</v>
       </c>
       <c r="I2" t="n">
         <v>92400</v>
       </c>
       <c r="J2" t="n">
-        <v>102000</v>
+        <v>101000</v>
       </c>
       <c r="K2" t="n">
-        <v>9599.999999999995</v>
+        <v>8599.999999999995</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DIF</t>
+          <t>WHART</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45883</v>
+        <v>45846</v>
       </c>
       <c r="C3" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="D3" t="n">
-        <v>8.449999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>8.85</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>9.295</v>
+        <v>9.680000000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>1.142857</v>
+        <v>1.595745</v>
       </c>
       <c r="H3" t="n">
-        <v>4.73</v>
+        <v>8.52</v>
       </c>
       <c r="I3" t="n">
-        <v>84500</v>
+        <v>44000</v>
       </c>
       <c r="J3" t="n">
-        <v>88500</v>
+        <v>47750</v>
       </c>
       <c r="K3" t="n">
-        <v>4000.000000000004</v>
+        <v>3750</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>WHART</t>
+          <t>PTT</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>45846</v>
+        <v>45901</v>
       </c>
       <c r="C4" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="D4" t="n">
-        <v>8.800000000000001</v>
+        <v>31</v>
       </c>
       <c r="E4" t="n">
-        <v>9.199999999999999</v>
+        <v>33.5</v>
       </c>
       <c r="F4" t="n">
-        <v>9.680000000000001</v>
+        <v>34.1</v>
       </c>
       <c r="G4" t="n">
-        <v>-1.075269</v>
+        <v>0.75188</v>
       </c>
       <c r="H4" t="n">
-        <v>4.55</v>
+        <v>8.06</v>
       </c>
       <c r="I4" t="n">
-        <v>44000</v>
+        <v>77500</v>
       </c>
       <c r="J4" t="n">
-        <v>46000</v>
+        <v>83750</v>
       </c>
       <c r="K4" t="n">
-        <v>1999.999999999993</v>
+        <v>6250</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>PTT</t>
+          <t>DIF</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>45901</v>
+        <v>45883</v>
       </c>
       <c r="C5" t="n">
-        <v>2500</v>
+        <v>10000</v>
       </c>
       <c r="D5" t="n">
-        <v>31</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>32.25</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>34.1</v>
+        <v>9.295</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.769231</v>
+        <v>2.259887</v>
       </c>
       <c r="H5" t="n">
-        <v>4.03</v>
+        <v>7.1</v>
       </c>
       <c r="I5" t="n">
-        <v>77500</v>
+        <v>84500</v>
       </c>
       <c r="J5" t="n">
-        <v>80625</v>
+        <v>90500</v>
       </c>
       <c r="K5" t="n">
-        <v>3125</v>
+        <v>6000.000000000015</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>TVO</t>
+          <t>PTT</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>45602</v>
+        <v>45877</v>
       </c>
       <c r="C6" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="D6" t="n">
-        <v>24.9</v>
+        <v>32</v>
       </c>
       <c r="E6" t="n">
-        <v>25.5</v>
+        <v>33.5</v>
       </c>
       <c r="F6" t="n">
-        <v>27.39</v>
+        <v>35.2</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>0.75188</v>
       </c>
       <c r="H6" t="n">
-        <v>2.41</v>
+        <v>4.69</v>
       </c>
       <c r="I6" t="n">
-        <v>99600</v>
+        <v>80000</v>
       </c>
       <c r="J6" t="n">
-        <v>102000</v>
+        <v>83750</v>
       </c>
       <c r="K6" t="n">
-        <v>2400.000000000005</v>
+        <v>3750</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>AIMIRT</t>
+          <t>RCL</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>45882</v>
+        <v>45887</v>
       </c>
       <c r="C7" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="D7" t="n">
-        <v>9.800000000000001</v>
+        <v>28</v>
       </c>
       <c r="E7" t="n">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="F7" t="n">
-        <v>10.78</v>
+        <v>30.8</v>
       </c>
       <c r="G7" t="n">
-        <v>2.040816</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>2.04</v>
+        <v>3.57</v>
       </c>
       <c r="I7" t="n">
-        <v>24500</v>
+        <v>84000</v>
       </c>
       <c r="J7" t="n">
-        <v>25000</v>
+        <v>87000</v>
       </c>
       <c r="K7" t="n">
-        <v>499.9999999999982</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="8">
@@ -723,77 +723,77 @@
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>45877</v>
+        <v>45882</v>
       </c>
       <c r="C8" t="n">
         <v>2500</v>
       </c>
       <c r="D8" t="n">
-        <v>9.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
       </c>
       <c r="F8" t="n">
-        <v>10.89</v>
+        <v>10.78</v>
       </c>
       <c r="G8" t="n">
-        <v>2.040816</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1.01</v>
+        <v>2.04</v>
       </c>
       <c r="I8" t="n">
-        <v>24750</v>
+        <v>24500</v>
       </c>
       <c r="J8" t="n">
         <v>25000</v>
       </c>
       <c r="K8" t="n">
-        <v>249.9999999999991</v>
+        <v>499.9999999999982</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>RCL</t>
+          <t>TVO</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>45887</v>
+        <v>45602</v>
       </c>
       <c r="C9" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="D9" t="n">
-        <v>28</v>
+        <v>24.9</v>
       </c>
       <c r="E9" t="n">
-        <v>28.25</v>
+        <v>25.25</v>
       </c>
       <c r="F9" t="n">
-        <v>30.8</v>
+        <v>27.39</v>
       </c>
       <c r="G9" t="n">
-        <v>4.62963</v>
+        <v>-1.941748</v>
       </c>
       <c r="H9" t="n">
-        <v>0.89</v>
+        <v>1.41</v>
       </c>
       <c r="I9" t="n">
-        <v>84000</v>
+        <v>99600</v>
       </c>
       <c r="J9" t="n">
-        <v>84750</v>
+        <v>101000</v>
       </c>
       <c r="K9" t="n">
-        <v>750</v>
+        <v>1400.000000000006</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>PTT</t>
+          <t>AIMIRT</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
@@ -803,28 +803,28 @@
         <v>2500</v>
       </c>
       <c r="D10" t="n">
-        <v>32</v>
+        <v>9.9</v>
       </c>
       <c r="E10" t="n">
-        <v>32.25</v>
+        <v>10</v>
       </c>
       <c r="F10" t="n">
-        <v>35.2</v>
+        <v>10.89</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.769231</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.78</v>
+        <v>1.01</v>
       </c>
       <c r="I10" t="n">
-        <v>80000</v>
+        <v>24750</v>
       </c>
       <c r="J10" t="n">
-        <v>80625</v>
+        <v>25000</v>
       </c>
       <c r="K10" t="n">
-        <v>625</v>
+        <v>249.9999999999991</v>
       </c>
     </row>
   </sheetData>

--- a/Ruby/watch-list-sell.xlsx
+++ b/Ruby/watch-list-sell.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,334 +497,297 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>TVO</t>
+          <t>DIF</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45728</v>
+        <v>45883</v>
       </c>
       <c r="C2" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="D2" t="n">
-        <v>23.1</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>25.25</v>
+        <v>9.4</v>
       </c>
       <c r="F2" t="n">
-        <v>25.41</v>
+        <v>9.295</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.941748</v>
+        <v>1.075269</v>
       </c>
       <c r="H2" t="n">
-        <v>9.31</v>
+        <v>11.24</v>
       </c>
       <c r="I2" t="n">
-        <v>92400</v>
+        <v>84500</v>
       </c>
       <c r="J2" t="n">
-        <v>101000</v>
+        <v>94000</v>
       </c>
       <c r="K2" t="n">
-        <v>8599.999999999995</v>
+        <v>9500.000000000011</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>WHART</t>
+          <t>PTT</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45846</v>
+        <v>45901</v>
       </c>
       <c r="C3" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="D3" t="n">
-        <v>8.800000000000001</v>
+        <v>31</v>
       </c>
       <c r="E3" t="n">
-        <v>9.550000000000001</v>
+        <v>33.25</v>
       </c>
       <c r="F3" t="n">
-        <v>9.680000000000001</v>
+        <v>34.1</v>
       </c>
       <c r="G3" t="n">
-        <v>1.595745</v>
+        <v>1.526718</v>
       </c>
       <c r="H3" t="n">
-        <v>8.52</v>
+        <v>7.26</v>
       </c>
       <c r="I3" t="n">
-        <v>44000</v>
+        <v>77500</v>
       </c>
       <c r="J3" t="n">
-        <v>47750</v>
+        <v>83125</v>
       </c>
       <c r="K3" t="n">
-        <v>3750</v>
+        <v>5625</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>PTT</t>
+          <t>AIMIRT</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>45901</v>
+        <v>45882</v>
       </c>
       <c r="C4" t="n">
         <v>2500</v>
       </c>
       <c r="D4" t="n">
-        <v>31</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>33.5</v>
+        <v>10.2</v>
       </c>
       <c r="F4" t="n">
-        <v>34.1</v>
+        <v>10.78</v>
       </c>
       <c r="G4" t="n">
-        <v>0.75188</v>
+        <v>0.990099</v>
       </c>
       <c r="H4" t="n">
-        <v>8.06</v>
+        <v>4.08</v>
       </c>
       <c r="I4" t="n">
-        <v>77500</v>
+        <v>24500</v>
       </c>
       <c r="J4" t="n">
-        <v>83750</v>
+        <v>25500</v>
       </c>
       <c r="K4" t="n">
-        <v>6250</v>
+        <v>999.9999999999965</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>DIF</t>
+          <t>PTT</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>45883</v>
+        <v>45877</v>
       </c>
       <c r="C5" t="n">
-        <v>10000</v>
+        <v>2500</v>
       </c>
       <c r="D5" t="n">
-        <v>8.449999999999999</v>
+        <v>32</v>
       </c>
       <c r="E5" t="n">
-        <v>9.050000000000001</v>
+        <v>33.25</v>
       </c>
       <c r="F5" t="n">
-        <v>9.295</v>
+        <v>35.2</v>
       </c>
       <c r="G5" t="n">
-        <v>2.259887</v>
+        <v>1.526718</v>
       </c>
       <c r="H5" t="n">
-        <v>7.1</v>
+        <v>3.91</v>
       </c>
       <c r="I5" t="n">
-        <v>84500</v>
+        <v>80000</v>
       </c>
       <c r="J5" t="n">
-        <v>90500</v>
+        <v>83125</v>
       </c>
       <c r="K5" t="n">
-        <v>6000.000000000015</v>
+        <v>3125</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>PTT</t>
+          <t>DIF</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>45877</v>
+        <v>45604</v>
       </c>
       <c r="C6" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="D6" t="n">
-        <v>32</v>
+        <v>9.1</v>
       </c>
       <c r="E6" t="n">
-        <v>33.5</v>
+        <v>9.4</v>
       </c>
       <c r="F6" t="n">
-        <v>35.2</v>
+        <v>10.01</v>
       </c>
       <c r="G6" t="n">
-        <v>0.75188</v>
+        <v>1.075269</v>
       </c>
       <c r="H6" t="n">
-        <v>4.69</v>
+        <v>3.3</v>
       </c>
       <c r="I6" t="n">
-        <v>80000</v>
+        <v>45500</v>
       </c>
       <c r="J6" t="n">
-        <v>83750</v>
+        <v>47000</v>
       </c>
       <c r="K6" t="n">
-        <v>3750</v>
+        <v>1500.000000000004</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>RCL</t>
+          <t>AIMIRT</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>45887</v>
+        <v>45877</v>
       </c>
       <c r="C7" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="D7" t="n">
-        <v>28</v>
+        <v>9.9</v>
       </c>
       <c r="E7" t="n">
-        <v>29</v>
+        <v>10.2</v>
       </c>
       <c r="F7" t="n">
-        <v>30.8</v>
+        <v>10.89</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>0.990099</v>
       </c>
       <c r="H7" t="n">
-        <v>3.57</v>
+        <v>3.03</v>
       </c>
       <c r="I7" t="n">
-        <v>84000</v>
+        <v>24750</v>
       </c>
       <c r="J7" t="n">
-        <v>87000</v>
+        <v>25500</v>
       </c>
       <c r="K7" t="n">
-        <v>3000</v>
+        <v>749.9999999999974</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>AIMIRT</t>
+          <t>TVO</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>45882</v>
+        <v>45602</v>
       </c>
       <c r="C8" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="D8" t="n">
-        <v>9.800000000000001</v>
+        <v>24.9</v>
       </c>
       <c r="E8" t="n">
-        <v>10</v>
+        <v>25.5</v>
       </c>
       <c r="F8" t="n">
-        <v>10.78</v>
+        <v>27.39</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>-0.970874</v>
       </c>
       <c r="H8" t="n">
-        <v>2.04</v>
+        <v>2.41</v>
       </c>
       <c r="I8" t="n">
-        <v>24500</v>
+        <v>99600</v>
       </c>
       <c r="J8" t="n">
-        <v>25000</v>
+        <v>102000</v>
       </c>
       <c r="K8" t="n">
-        <v>499.9999999999982</v>
+        <v>2400.000000000005</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>TVO</t>
+          <t>RCL</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>45602</v>
+        <v>45887</v>
       </c>
       <c r="C9" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="D9" t="n">
-        <v>24.9</v>
+        <v>28</v>
       </c>
       <c r="E9" t="n">
-        <v>25.25</v>
+        <v>28.25</v>
       </c>
       <c r="F9" t="n">
-        <v>27.39</v>
+        <v>30.8</v>
       </c>
       <c r="G9" t="n">
-        <v>-1.941748</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>1.41</v>
+        <v>0.89</v>
       </c>
       <c r="I9" t="n">
-        <v>99600</v>
+        <v>84000</v>
       </c>
       <c r="J9" t="n">
-        <v>101000</v>
+        <v>84750</v>
       </c>
       <c r="K9" t="n">
-        <v>1400.000000000006</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>AIMIRT</t>
-        </is>
-      </c>
-      <c r="B10" s="2" t="n">
-        <v>45877</v>
-      </c>
-      <c r="C10" t="n">
-        <v>2500</v>
-      </c>
-      <c r="D10" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="E10" t="n">
-        <v>10</v>
-      </c>
-      <c r="F10" t="n">
-        <v>10.89</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="I10" t="n">
-        <v>24750</v>
-      </c>
-      <c r="J10" t="n">
-        <v>25000</v>
-      </c>
-      <c r="K10" t="n">
-        <v>249.9999999999991</v>
+        <v>750</v>
       </c>
     </row>
   </sheetData>

--- a/Ruby/watch-list-sell.xlsx
+++ b/Ruby/watch-list-sell.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -510,25 +510,25 @@
         <v>8.449999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>9.4</v>
+        <v>9.15</v>
       </c>
       <c r="F2" t="n">
         <v>9.295</v>
       </c>
       <c r="G2" t="n">
-        <v>1.075269</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>11.24</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="I2" t="n">
         <v>84500</v>
       </c>
       <c r="J2" t="n">
-        <v>94000</v>
+        <v>91500</v>
       </c>
       <c r="K2" t="n">
-        <v>9500.000000000011</v>
+        <v>7000.000000000011</v>
       </c>
     </row>
     <row r="3">
@@ -553,7 +553,7 @@
         <v>34.1</v>
       </c>
       <c r="G3" t="n">
-        <v>1.526718</v>
+        <v>0.757576</v>
       </c>
       <c r="H3" t="n">
         <v>7.26</v>
@@ -584,31 +584,31 @@
         <v>9.800000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>10.2</v>
+        <v>10.4</v>
       </c>
       <c r="F4" t="n">
         <v>10.78</v>
       </c>
       <c r="G4" t="n">
-        <v>0.990099</v>
+        <v>-0.952381</v>
       </c>
       <c r="H4" t="n">
-        <v>4.08</v>
+        <v>6.12</v>
       </c>
       <c r="I4" t="n">
         <v>24500</v>
       </c>
       <c r="J4" t="n">
-        <v>25500</v>
+        <v>26000</v>
       </c>
       <c r="K4" t="n">
-        <v>999.9999999999965</v>
+        <v>1499.999999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>PTT</t>
+          <t>AIMIRT</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
@@ -618,176 +618,213 @@
         <v>2500</v>
       </c>
       <c r="D5" t="n">
-        <v>32</v>
+        <v>9.9</v>
       </c>
       <c r="E5" t="n">
-        <v>33.25</v>
+        <v>10.4</v>
       </c>
       <c r="F5" t="n">
-        <v>35.2</v>
+        <v>10.89</v>
       </c>
       <c r="G5" t="n">
-        <v>1.526718</v>
+        <v>-0.952381</v>
       </c>
       <c r="H5" t="n">
-        <v>3.91</v>
+        <v>5.05</v>
       </c>
       <c r="I5" t="n">
-        <v>80000</v>
+        <v>24750</v>
       </c>
       <c r="J5" t="n">
-        <v>83125</v>
+        <v>26000</v>
       </c>
       <c r="K5" t="n">
-        <v>3125</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>DIF</t>
+          <t>PTT</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>45604</v>
+        <v>45877</v>
       </c>
       <c r="C6" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="D6" t="n">
-        <v>9.1</v>
+        <v>32</v>
       </c>
       <c r="E6" t="n">
-        <v>9.4</v>
+        <v>33.25</v>
       </c>
       <c r="F6" t="n">
-        <v>10.01</v>
+        <v>35.2</v>
       </c>
       <c r="G6" t="n">
-        <v>1.075269</v>
+        <v>0.757576</v>
       </c>
       <c r="H6" t="n">
-        <v>3.3</v>
+        <v>3.91</v>
       </c>
       <c r="I6" t="n">
-        <v>45500</v>
+        <v>80000</v>
       </c>
       <c r="J6" t="n">
-        <v>47000</v>
+        <v>83125</v>
       </c>
       <c r="K6" t="n">
-        <v>1500.000000000004</v>
+        <v>3125</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>AIMIRT</t>
+          <t>PTT</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>45877</v>
+        <v>45919</v>
       </c>
       <c r="C7" t="n">
         <v>2500</v>
       </c>
       <c r="D7" t="n">
-        <v>9.9</v>
+        <v>33</v>
       </c>
       <c r="E7" t="n">
-        <v>10.2</v>
+        <v>33.25</v>
       </c>
       <c r="F7" t="n">
-        <v>10.89</v>
+        <v>36.3</v>
       </c>
       <c r="G7" t="n">
-        <v>0.990099</v>
+        <v>0.757576</v>
       </c>
       <c r="H7" t="n">
-        <v>3.03</v>
+        <v>0.76</v>
       </c>
       <c r="I7" t="n">
-        <v>24750</v>
+        <v>82500</v>
       </c>
       <c r="J7" t="n">
-        <v>25500</v>
+        <v>83125</v>
       </c>
       <c r="K7" t="n">
-        <v>749.9999999999974</v>
+        <v>625</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>TVO</t>
+          <t>DIF</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>45602</v>
+        <v>45604</v>
       </c>
       <c r="C8" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="D8" t="n">
-        <v>24.9</v>
+        <v>9.1</v>
       </c>
       <c r="E8" t="n">
-        <v>25.5</v>
+        <v>9.15</v>
       </c>
       <c r="F8" t="n">
-        <v>27.39</v>
+        <v>10.01</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.970874</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>2.41</v>
+        <v>0.55</v>
       </c>
       <c r="I8" t="n">
-        <v>99600</v>
+        <v>45500</v>
       </c>
       <c r="J8" t="n">
-        <v>102000</v>
+        <v>45750</v>
       </c>
       <c r="K8" t="n">
-        <v>2400.000000000005</v>
+        <v>250.0000000000036</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>RCL</t>
+          <t>TVO</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>45887</v>
+        <v>45602</v>
       </c>
       <c r="C9" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="D9" t="n">
-        <v>28</v>
+        <v>24.9</v>
       </c>
       <c r="E9" t="n">
-        <v>28.25</v>
+        <v>25</v>
       </c>
       <c r="F9" t="n">
-        <v>30.8</v>
+        <v>27.39</v>
       </c>
       <c r="G9" t="n">
+        <v>-1.960784</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I9" t="n">
+        <v>99600</v>
+      </c>
+      <c r="J9" t="n">
+        <v>100000</v>
+      </c>
+      <c r="K9" t="n">
+        <v>400.0000000000057</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>SYNEX</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>45875</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2500</v>
+      </c>
+      <c r="D10" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="E10" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="F10" t="n">
+        <v>13.86</v>
+      </c>
+      <c r="G10" t="n">
         <v>0</v>
       </c>
-      <c r="H9" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="I9" t="n">
-        <v>84000</v>
-      </c>
-      <c r="J9" t="n">
-        <v>84750</v>
-      </c>
-      <c r="K9" t="n">
-        <v>750</v>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>31500</v>
+      </c>
+      <c r="J10" t="n">
+        <v>31500</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Ruby/watch-list-sell.xlsx
+++ b/Ruby/watch-list-sell.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,7 +516,7 @@
         <v>9.295</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.549451</v>
       </c>
       <c r="H2" t="n">
         <v>8.279999999999999</v>
@@ -534,38 +534,38 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>PTT</t>
+          <t>AIMIRT</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45901</v>
+        <v>45882</v>
       </c>
       <c r="C3" t="n">
         <v>2500</v>
       </c>
       <c r="D3" t="n">
-        <v>31</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>33.25</v>
+        <v>10.3</v>
       </c>
       <c r="F3" t="n">
-        <v>34.1</v>
+        <v>10.78</v>
       </c>
       <c r="G3" t="n">
-        <v>0.757576</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>7.26</v>
+        <v>5.1</v>
       </c>
       <c r="I3" t="n">
-        <v>77500</v>
+        <v>24500</v>
       </c>
       <c r="J3" t="n">
-        <v>83125</v>
+        <v>25750</v>
       </c>
       <c r="K3" t="n">
-        <v>5625</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="4">
@@ -575,108 +575,108 @@
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>45882</v>
+        <v>45877</v>
       </c>
       <c r="C4" t="n">
         <v>2500</v>
       </c>
       <c r="D4" t="n">
-        <v>9.800000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="E4" t="n">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="F4" t="n">
-        <v>10.78</v>
+        <v>10.89</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.952381</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>6.12</v>
+        <v>4.04</v>
       </c>
       <c r="I4" t="n">
-        <v>24500</v>
+        <v>24750</v>
       </c>
       <c r="J4" t="n">
-        <v>26000</v>
+        <v>25750</v>
       </c>
       <c r="K4" t="n">
-        <v>1499.999999999999</v>
+        <v>1000.000000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AIMIRT</t>
+          <t>PTT</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>45877</v>
+        <v>45901</v>
       </c>
       <c r="C5" t="n">
         <v>2500</v>
       </c>
       <c r="D5" t="n">
-        <v>9.9</v>
+        <v>31</v>
       </c>
       <c r="E5" t="n">
-        <v>10.4</v>
+        <v>32</v>
       </c>
       <c r="F5" t="n">
-        <v>10.89</v>
+        <v>34.1</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.952381</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>5.05</v>
+        <v>3.23</v>
       </c>
       <c r="I5" t="n">
-        <v>24750</v>
+        <v>77500</v>
       </c>
       <c r="J5" t="n">
-        <v>26000</v>
+        <v>80000</v>
       </c>
       <c r="K5" t="n">
-        <v>1250</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>PTT</t>
+          <t>DIF</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>45877</v>
+        <v>45604</v>
       </c>
       <c r="C6" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="D6" t="n">
-        <v>32</v>
+        <v>9.1</v>
       </c>
       <c r="E6" t="n">
-        <v>33.25</v>
+        <v>9.15</v>
       </c>
       <c r="F6" t="n">
-        <v>35.2</v>
+        <v>10.01</v>
       </c>
       <c r="G6" t="n">
-        <v>0.757576</v>
+        <v>0.549451</v>
       </c>
       <c r="H6" t="n">
-        <v>3.91</v>
+        <v>0.55</v>
       </c>
       <c r="I6" t="n">
-        <v>80000</v>
+        <v>45500</v>
       </c>
       <c r="J6" t="n">
-        <v>83125</v>
+        <v>45750</v>
       </c>
       <c r="K6" t="n">
-        <v>3125</v>
+        <v>250.0000000000036</v>
       </c>
     </row>
     <row r="7">
@@ -686,144 +686,70 @@
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>45919</v>
+        <v>45877</v>
       </c>
       <c r="C7" t="n">
         <v>2500</v>
       </c>
       <c r="D7" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E7" t="n">
-        <v>33.25</v>
+        <v>32</v>
       </c>
       <c r="F7" t="n">
-        <v>36.3</v>
+        <v>35.2</v>
       </c>
       <c r="G7" t="n">
-        <v>0.757576</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.76</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>82500</v>
+        <v>80000</v>
       </c>
       <c r="J7" t="n">
-        <v>83125</v>
+        <v>80000</v>
       </c>
       <c r="K7" t="n">
-        <v>625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>DIF</t>
+          <t>TVO</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>45604</v>
+        <v>45602</v>
       </c>
       <c r="C8" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="D8" t="n">
-        <v>9.1</v>
+        <v>24.9</v>
       </c>
       <c r="E8" t="n">
-        <v>9.15</v>
+        <v>24.9</v>
       </c>
       <c r="F8" t="n">
-        <v>10.01</v>
+        <v>27.39</v>
       </c>
       <c r="G8" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="H8" t="n">
-        <v>0.55</v>
-      </c>
       <c r="I8" t="n">
-        <v>45500</v>
+        <v>99600</v>
       </c>
       <c r="J8" t="n">
-        <v>45750</v>
+        <v>99600</v>
       </c>
       <c r="K8" t="n">
-        <v>250.0000000000036</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>TVO</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="n">
-        <v>45602</v>
-      </c>
-      <c r="C9" t="n">
-        <v>4000</v>
-      </c>
-      <c r="D9" t="n">
-        <v>24.9</v>
-      </c>
-      <c r="E9" t="n">
-        <v>25</v>
-      </c>
-      <c r="F9" t="n">
-        <v>27.39</v>
-      </c>
-      <c r="G9" t="n">
-        <v>-1.960784</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="I9" t="n">
-        <v>99600</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100000</v>
-      </c>
-      <c r="K9" t="n">
-        <v>400.0000000000057</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>SYNEX</t>
-        </is>
-      </c>
-      <c r="B10" s="2" t="n">
-        <v>45875</v>
-      </c>
-      <c r="C10" t="n">
-        <v>2500</v>
-      </c>
-      <c r="D10" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="E10" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="F10" t="n">
-        <v>13.86</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>31500</v>
-      </c>
-      <c r="J10" t="n">
-        <v>31500</v>
-      </c>
-      <c r="K10" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Ruby/watch-list-sell.xlsx
+++ b/Ruby/watch-list-sell.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -547,25 +547,25 @@
         <v>9.800000000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>10.3</v>
+        <v>10.2</v>
       </c>
       <c r="F3" t="n">
         <v>10.78</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-1.923077</v>
       </c>
       <c r="H3" t="n">
-        <v>5.1</v>
+        <v>4.08</v>
       </c>
       <c r="I3" t="n">
         <v>24500</v>
       </c>
       <c r="J3" t="n">
-        <v>25750</v>
+        <v>25500</v>
       </c>
       <c r="K3" t="n">
-        <v>1250</v>
+        <v>999.9999999999965</v>
       </c>
     </row>
     <row r="4">
@@ -584,25 +584,25 @@
         <v>9.9</v>
       </c>
       <c r="E4" t="n">
-        <v>10.3</v>
+        <v>10.2</v>
       </c>
       <c r="F4" t="n">
         <v>10.89</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-1.923077</v>
       </c>
       <c r="H4" t="n">
-        <v>4.04</v>
+        <v>3.03</v>
       </c>
       <c r="I4" t="n">
         <v>24750</v>
       </c>
       <c r="J4" t="n">
-        <v>25750</v>
+        <v>25500</v>
       </c>
       <c r="K4" t="n">
-        <v>1000.000000000001</v>
+        <v>749.9999999999974</v>
       </c>
     </row>
     <row r="5">
@@ -621,25 +621,25 @@
         <v>31</v>
       </c>
       <c r="E5" t="n">
-        <v>32</v>
+        <v>31.5</v>
       </c>
       <c r="F5" t="n">
         <v>34.1</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>-1.5625</v>
       </c>
       <c r="H5" t="n">
-        <v>3.23</v>
+        <v>1.61</v>
       </c>
       <c r="I5" t="n">
         <v>77500</v>
       </c>
       <c r="J5" t="n">
-        <v>80000</v>
+        <v>78750</v>
       </c>
       <c r="K5" t="n">
-        <v>2500</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="6">
@@ -682,74 +682,37 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>PTT</t>
+          <t>TVO</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>45877</v>
+        <v>45602</v>
       </c>
       <c r="C7" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="D7" t="n">
-        <v>32</v>
+        <v>24.9</v>
       </c>
       <c r="E7" t="n">
-        <v>32</v>
+        <v>24.9</v>
       </c>
       <c r="F7" t="n">
-        <v>35.2</v>
+        <v>27.39</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>-0.4</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>80000</v>
+        <v>99600</v>
       </c>
       <c r="J7" t="n">
-        <v>80000</v>
+        <v>99600</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>TVO</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="n">
-        <v>45602</v>
-      </c>
-      <c r="C8" t="n">
-        <v>4000</v>
-      </c>
-      <c r="D8" t="n">
-        <v>24.9</v>
-      </c>
-      <c r="E8" t="n">
-        <v>24.9</v>
-      </c>
-      <c r="F8" t="n">
-        <v>27.39</v>
-      </c>
-      <c r="G8" t="n">
-        <v>-0.4</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>99600</v>
-      </c>
-      <c r="J8" t="n">
-        <v>99600</v>
-      </c>
-      <c r="K8" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Ruby/watch-list-sell.xlsx
+++ b/Ruby/watch-list-sell.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -510,25 +510,25 @@
         <v>8.449999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>9.15</v>
+        <v>9.25</v>
       </c>
       <c r="F2" t="n">
         <v>9.295</v>
       </c>
       <c r="G2" t="n">
-        <v>0.549451</v>
+        <v>0.543478</v>
       </c>
       <c r="H2" t="n">
-        <v>8.279999999999999</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="I2" t="n">
         <v>84500</v>
       </c>
       <c r="J2" t="n">
-        <v>91500</v>
+        <v>92500</v>
       </c>
       <c r="K2" t="n">
-        <v>7000.000000000011</v>
+        <v>8000.000000000007</v>
       </c>
     </row>
     <row r="3">
@@ -547,25 +547,25 @@
         <v>9.800000000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>10.2</v>
+        <v>10.5</v>
       </c>
       <c r="F3" t="n">
         <v>10.78</v>
       </c>
       <c r="G3" t="n">
-        <v>-1.923077</v>
+        <v>-0.943396</v>
       </c>
       <c r="H3" t="n">
-        <v>4.08</v>
+        <v>7.14</v>
       </c>
       <c r="I3" t="n">
         <v>24500</v>
       </c>
       <c r="J3" t="n">
-        <v>25500</v>
+        <v>26250</v>
       </c>
       <c r="K3" t="n">
-        <v>999.9999999999965</v>
+        <v>1749.999999999998</v>
       </c>
     </row>
     <row r="4">
@@ -584,135 +584,98 @@
         <v>9.9</v>
       </c>
       <c r="E4" t="n">
-        <v>10.2</v>
+        <v>10.5</v>
       </c>
       <c r="F4" t="n">
         <v>10.89</v>
       </c>
       <c r="G4" t="n">
-        <v>-1.923077</v>
+        <v>-0.943396</v>
       </c>
       <c r="H4" t="n">
-        <v>3.03</v>
+        <v>6.06</v>
       </c>
       <c r="I4" t="n">
         <v>24750</v>
       </c>
       <c r="J4" t="n">
-        <v>25500</v>
+        <v>26250</v>
       </c>
       <c r="K4" t="n">
-        <v>749.9999999999974</v>
+        <v>1499.999999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>PTT</t>
+          <t>DIF</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>45901</v>
+        <v>45604</v>
       </c>
       <c r="C5" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="D5" t="n">
-        <v>31</v>
+        <v>9.1</v>
       </c>
       <c r="E5" t="n">
-        <v>31.5</v>
+        <v>9.25</v>
       </c>
       <c r="F5" t="n">
-        <v>34.1</v>
+        <v>10.01</v>
       </c>
       <c r="G5" t="n">
-        <v>-1.5625</v>
+        <v>0.543478</v>
       </c>
       <c r="H5" t="n">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="I5" t="n">
-        <v>77500</v>
+        <v>45500</v>
       </c>
       <c r="J5" t="n">
-        <v>78750</v>
+        <v>46250</v>
       </c>
       <c r="K5" t="n">
-        <v>1250</v>
+        <v>750.0000000000018</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>DIF</t>
+          <t>AIMIRT</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>45604</v>
+        <v>45460</v>
       </c>
       <c r="C6" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="D6" t="n">
-        <v>9.1</v>
+        <v>10.5</v>
       </c>
       <c r="E6" t="n">
-        <v>9.15</v>
+        <v>10.5</v>
       </c>
       <c r="F6" t="n">
-        <v>10.01</v>
+        <v>11.55</v>
       </c>
       <c r="G6" t="n">
-        <v>0.549451</v>
+        <v>-0.943396</v>
       </c>
       <c r="H6" t="n">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>45500</v>
+        <v>26250</v>
       </c>
       <c r="J6" t="n">
-        <v>45750</v>
+        <v>26250</v>
       </c>
       <c r="K6" t="n">
-        <v>250.0000000000036</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>TVO</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="n">
-        <v>45602</v>
-      </c>
-      <c r="C7" t="n">
-        <v>4000</v>
-      </c>
-      <c r="D7" t="n">
-        <v>24.9</v>
-      </c>
-      <c r="E7" t="n">
-        <v>24.9</v>
-      </c>
-      <c r="F7" t="n">
-        <v>27.39</v>
-      </c>
-      <c r="G7" t="n">
-        <v>-0.4</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>99600</v>
-      </c>
-      <c r="J7" t="n">
-        <v>99600</v>
-      </c>
-      <c r="K7" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Ruby/watch-list-sell.xlsx
+++ b/Ruby/watch-list-sell.xlsx
@@ -510,25 +510,25 @@
         <v>8.449999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>9.25</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="F2" t="n">
         <v>9.295</v>
       </c>
       <c r="G2" t="n">
-        <v>0.543478</v>
+        <v>0.540541</v>
       </c>
       <c r="H2" t="n">
-        <v>9.470000000000001</v>
+        <v>10.06</v>
       </c>
       <c r="I2" t="n">
         <v>84500</v>
       </c>
       <c r="J2" t="n">
-        <v>92500</v>
+        <v>93000</v>
       </c>
       <c r="K2" t="n">
-        <v>8000.000000000007</v>
+        <v>8500.000000000015</v>
       </c>
     </row>
     <row r="3">
@@ -547,25 +547,25 @@
         <v>9.800000000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>10.5</v>
+        <v>10.3</v>
       </c>
       <c r="F3" t="n">
         <v>10.78</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.943396</v>
+        <v>-0.961538</v>
       </c>
       <c r="H3" t="n">
-        <v>7.14</v>
+        <v>5.1</v>
       </c>
       <c r="I3" t="n">
         <v>24500</v>
       </c>
       <c r="J3" t="n">
-        <v>26250</v>
+        <v>25750</v>
       </c>
       <c r="K3" t="n">
-        <v>1749.999999999998</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="4">
@@ -584,99 +584,99 @@
         <v>9.9</v>
       </c>
       <c r="E4" t="n">
-        <v>10.5</v>
+        <v>10.3</v>
       </c>
       <c r="F4" t="n">
         <v>10.89</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.943396</v>
+        <v>-0.961538</v>
       </c>
       <c r="H4" t="n">
-        <v>6.06</v>
+        <v>4.04</v>
       </c>
       <c r="I4" t="n">
         <v>24750</v>
       </c>
       <c r="J4" t="n">
-        <v>26250</v>
+        <v>25750</v>
       </c>
       <c r="K4" t="n">
-        <v>1499.999999999999</v>
+        <v>1000.000000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>DIF</t>
+          <t>PTT</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>45604</v>
+        <v>45901</v>
       </c>
       <c r="C5" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="D5" t="n">
-        <v>9.1</v>
+        <v>31</v>
       </c>
       <c r="E5" t="n">
-        <v>9.25</v>
+        <v>31.75</v>
       </c>
       <c r="F5" t="n">
-        <v>10.01</v>
+        <v>34.1</v>
       </c>
       <c r="G5" t="n">
-        <v>0.543478</v>
+        <v>2.419355</v>
       </c>
       <c r="H5" t="n">
-        <v>1.65</v>
+        <v>2.42</v>
       </c>
       <c r="I5" t="n">
-        <v>45500</v>
+        <v>77500</v>
       </c>
       <c r="J5" t="n">
-        <v>46250</v>
+        <v>79375</v>
       </c>
       <c r="K5" t="n">
-        <v>750.0000000000018</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>AIMIRT</t>
+          <t>DIF</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>45460</v>
+        <v>45604</v>
       </c>
       <c r="C6" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="D6" t="n">
-        <v>10.5</v>
+        <v>9.1</v>
       </c>
       <c r="E6" t="n">
-        <v>10.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="F6" t="n">
-        <v>11.55</v>
+        <v>10.01</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.943396</v>
+        <v>0.540541</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="I6" t="n">
-        <v>26250</v>
+        <v>45500</v>
       </c>
       <c r="J6" t="n">
-        <v>26250</v>
+        <v>46500</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>1000.000000000005</v>
       </c>
     </row>
   </sheetData>

--- a/Ruby/watch-list-sell.xlsx
+++ b/Ruby/watch-list-sell.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,7 +516,7 @@
         <v>9.295</v>
       </c>
       <c r="G2" t="n">
-        <v>0.540541</v>
+        <v>-0.534759</v>
       </c>
       <c r="H2" t="n">
         <v>10.06</v>
@@ -547,25 +547,25 @@
         <v>9.800000000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>10.3</v>
+        <v>10.2</v>
       </c>
       <c r="F3" t="n">
         <v>10.78</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.961538</v>
+        <v>-0.970874</v>
       </c>
       <c r="H3" t="n">
-        <v>5.1</v>
+        <v>4.08</v>
       </c>
       <c r="I3" t="n">
         <v>24500</v>
       </c>
       <c r="J3" t="n">
-        <v>25750</v>
+        <v>25500</v>
       </c>
       <c r="K3" t="n">
-        <v>1250</v>
+        <v>999.9999999999965</v>
       </c>
     </row>
     <row r="4">
@@ -584,98 +584,61 @@
         <v>9.9</v>
       </c>
       <c r="E4" t="n">
-        <v>10.3</v>
+        <v>10.2</v>
       </c>
       <c r="F4" t="n">
         <v>10.89</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.961538</v>
+        <v>-0.970874</v>
       </c>
       <c r="H4" t="n">
-        <v>4.04</v>
+        <v>3.03</v>
       </c>
       <c r="I4" t="n">
         <v>24750</v>
       </c>
       <c r="J4" t="n">
-        <v>25750</v>
+        <v>25500</v>
       </c>
       <c r="K4" t="n">
-        <v>1000.000000000001</v>
+        <v>749.9999999999974</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>PTT</t>
+          <t>DIF</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>45901</v>
+        <v>45604</v>
       </c>
       <c r="C5" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="D5" t="n">
-        <v>31</v>
+        <v>9.1</v>
       </c>
       <c r="E5" t="n">
-        <v>31.75</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>34.1</v>
+        <v>10.01</v>
       </c>
       <c r="G5" t="n">
-        <v>2.419355</v>
+        <v>-0.534759</v>
       </c>
       <c r="H5" t="n">
-        <v>2.42</v>
+        <v>2.2</v>
       </c>
       <c r="I5" t="n">
-        <v>77500</v>
+        <v>45500</v>
       </c>
       <c r="J5" t="n">
-        <v>79375</v>
+        <v>46500</v>
       </c>
       <c r="K5" t="n">
-        <v>1875</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>DIF</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>45604</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5000</v>
-      </c>
-      <c r="D6" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="E6" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="F6" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.540541</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>45500</v>
-      </c>
-      <c r="J6" t="n">
-        <v>46500</v>
-      </c>
-      <c r="K6" t="n">
         <v>1000.000000000005</v>
       </c>
     </row>
